--- a/result_geral.xlsx
+++ b/result_geral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="194">
   <si>
     <t>user_id_telegram</t>
   </si>
@@ -37,6 +37,15 @@
     <t>local_arquivo</t>
   </si>
   <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>data_execucao_robo</t>
+  </si>
+  <si>
+    <t>chave</t>
+  </si>
+  <si>
     <t>David_LuizPGO</t>
   </si>
   <si>
@@ -70,6 +79,15 @@
     <t>MaikeFranco</t>
   </si>
   <si>
+    <t>lucas_nrocha</t>
+  </si>
+  <si>
+    <t>AntonioTST2023</t>
+  </si>
+  <si>
+    <t>Kelvin_ASSantos</t>
+  </si>
+  <si>
     <t>David Luiz</t>
   </si>
   <si>
@@ -148,6 +166,15 @@
     <t>ALEX</t>
   </si>
   <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Antonio Marcos</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
+  </si>
+  <si>
     <t>Franco</t>
   </si>
   <si>
@@ -190,6 +217,12 @@
     <t>Ribeiro</t>
   </si>
   <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
     <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1855522970_David_LuizPGO_David Luiz_None_2025_08_11</t>
   </si>
   <si>
@@ -461,12 +494,117 @@
   </si>
   <si>
     <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/376169998_None_Michel_Franco_2025_07_25</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/999024757_lucas_nrocha_Lucas_Rocha_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/263022618_None_Felipe_Polonio_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/6881805090_None_Frederico_Apoio BKB 43_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/600960219_None_Rodrigo ico_None_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/444284162_None_Rafael_Verruch_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/197534512_Cristiano_Gomez_Cristiano_Gomez_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/472990665_JaqueOliveiraQSMS_Jaque Oliveira_QSMS_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1855522970_David_LuizPGO_David Luiz_None_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/5885288199_None_Odair_Rocha Da Silva_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/5742326364_AntonioTST2023_Antonio Marcos_Santos_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1855522970_David_LuizPGO_David Luiz_None_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/600960219_None_Rodrigo ico_None_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/999024757_lucas_nrocha_Lucas_Rocha_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/444284162_None_Rafael_Verruch_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1272726249_Kelvin_ASSantos_Kelvin_Santos_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/215770196_None_Lincon_Trentin_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/5885288199_None_Odair_Rocha Da Silva_2025_08_12</t>
+  </si>
+  <si>
+    <t>999024757_13_8_2025</t>
+  </si>
+  <si>
+    <t>263022618_13_8_2025</t>
+  </si>
+  <si>
+    <t>6881805090_13_8_2025</t>
+  </si>
+  <si>
+    <t>600960219_13_8_2025</t>
+  </si>
+  <si>
+    <t>444284162_13_8_2025</t>
+  </si>
+  <si>
+    <t>197534512_13_8_2025</t>
+  </si>
+  <si>
+    <t>472990665_13_8_2025</t>
+  </si>
+  <si>
+    <t>1855522970_13_8_2025</t>
+  </si>
+  <si>
+    <t>5885288199_13_8_2025</t>
+  </si>
+  <si>
+    <t>5742326364_13_8_2025</t>
+  </si>
+  <si>
+    <t>1855522970_12_8_2025</t>
+  </si>
+  <si>
+    <t>600960219_12_8_2025</t>
+  </si>
+  <si>
+    <t>999024757_12_8_2025</t>
+  </si>
+  <si>
+    <t>444284162_12_8_2025</t>
+  </si>
+  <si>
+    <t>1272726249_12_8_2025</t>
+  </si>
+  <si>
+    <t>215770196_12_8_2025</t>
+  </si>
+  <si>
+    <t>5885288199_12_8_2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -519,11 +657,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,13 +957,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:J268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,16 +985,25 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1855522970</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -864,18 +1012,18 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1855522970</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -884,18 +1032,18 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1387762095</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -904,18 +1052,18 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1855522970</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -924,18 +1072,18 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1855522970</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -944,18 +1092,18 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>376169998</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -964,18 +1112,18 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>376169998</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>11</v>
@@ -984,18 +1132,18 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>376169998</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -1004,18 +1152,18 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>376169998</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>11</v>
@@ -1024,18 +1172,18 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>215770196</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>11</v>
@@ -1044,18 +1192,18 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>215770196</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1064,18 +1212,18 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>376169998</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -1084,18 +1232,18 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>1387762095</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -1104,18 +1252,18 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>1855522970</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>11</v>
@@ -1124,18 +1272,18 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>1855522970</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>11</v>
@@ -1144,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1152,10 +1300,10 @@
         <v>444284162</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -1164,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1172,13 +1320,13 @@
         <v>197534512</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -1187,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1195,10 +1343,10 @@
         <v>1387762095</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -1207,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1215,10 +1363,10 @@
         <v>5885288199</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>11</v>
@@ -1227,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1235,7 +1383,7 @@
         <v>198540983</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -1244,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1252,7 +1400,7 @@
         <v>198540983</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>11</v>
@@ -1261,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1269,10 +1417,10 @@
         <v>6881805090</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>11</v>
@@ -1281,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1289,10 +1437,10 @@
         <v>1454238617</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>11</v>
@@ -1301,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1309,10 +1457,10 @@
         <v>444284162</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>11</v>
@@ -1321,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1329,10 +1477,10 @@
         <v>444284162</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>11</v>
@@ -1341,7 +1489,7 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1349,10 +1497,10 @@
         <v>444284162</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -1361,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1369,10 +1517,10 @@
         <v>8085882885</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -1381,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1389,10 +1537,10 @@
         <v>1855522970</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -1401,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1409,14 +1557,14 @@
         <v>278842749</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
       <c r="E30">
         <v>8</v>
       </c>
@@ -1424,7 +1572,7 @@
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1432,10 +1580,10 @@
         <v>8085882885</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -1444,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1452,13 +1600,13 @@
         <v>472990665</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -1467,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1475,10 +1623,10 @@
         <v>444284162</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -1487,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1495,10 +1643,10 @@
         <v>215770196</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -1507,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1515,10 +1663,10 @@
         <v>215770196</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <v>8</v>
@@ -1527,7 +1675,7 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1535,10 +1683,10 @@
         <v>376169998</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -1547,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1555,10 +1703,10 @@
         <v>376169998</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -1567,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1575,10 +1723,10 @@
         <v>376169998</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -1587,7 +1735,7 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1595,10 +1743,10 @@
         <v>376169998</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -1607,7 +1755,7 @@
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1615,10 +1763,10 @@
         <v>6054700257</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E40">
         <v>7</v>
@@ -1627,7 +1775,7 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1635,10 +1783,10 @@
         <v>634893031</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -1647,7 +1795,7 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1655,10 +1803,10 @@
         <v>1855522970</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>7</v>
@@ -1667,7 +1815,7 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1675,10 +1823,10 @@
         <v>1855522970</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -1687,7 +1835,7 @@
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1695,10 +1843,10 @@
         <v>444284162</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E44">
         <v>7</v>
@@ -1707,7 +1855,7 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1715,10 +1863,10 @@
         <v>191749113</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E45">
         <v>7</v>
@@ -1727,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1735,10 +1883,10 @@
         <v>444284162</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E46">
         <v>7</v>
@@ -1747,7 +1895,7 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1755,10 +1903,10 @@
         <v>1387762095</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>7</v>
@@ -1767,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1775,10 +1923,10 @@
         <v>6054700257</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E48">
         <v>7</v>
@@ -1787,7 +1935,7 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1795,10 +1943,10 @@
         <v>1387762095</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>7</v>
@@ -1807,7 +1955,7 @@
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1815,10 +1963,10 @@
         <v>444284162</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -1827,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1835,10 +1983,10 @@
         <v>444284162</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E51">
         <v>7</v>
@@ -1847,7 +1995,7 @@
         <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1855,10 +2003,10 @@
         <v>1387762095</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>7</v>
@@ -1867,7 +2015,7 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1875,10 +2023,10 @@
         <v>444284162</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -1887,7 +2035,7 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1895,10 +2043,10 @@
         <v>8085882885</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>7</v>
@@ -1907,7 +2055,7 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1915,10 +2063,10 @@
         <v>215770196</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -1927,7 +2075,7 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1935,10 +2083,10 @@
         <v>444284162</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -1947,7 +2095,7 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1955,10 +2103,10 @@
         <v>444284162</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -1967,7 +2115,7 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1975,10 +2123,10 @@
         <v>444284162</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E58">
         <v>6</v>
@@ -1987,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1995,10 +2143,10 @@
         <v>444284162</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -2007,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2015,10 +2163,10 @@
         <v>444284162</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E60">
         <v>6</v>
@@ -2027,7 +2175,7 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2035,10 +2183,10 @@
         <v>444284162</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -2047,7 +2195,7 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2055,10 +2203,10 @@
         <v>6054700257</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <v>6</v>
@@ -2067,7 +2215,7 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2075,10 +2223,10 @@
         <v>6054700257</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -2087,7 +2235,7 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2095,10 +2243,10 @@
         <v>5885288199</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E64">
         <v>6</v>
@@ -2107,7 +2255,7 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2115,10 +2263,10 @@
         <v>5885288199</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -2127,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2135,10 +2283,10 @@
         <v>444284162</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E66">
         <v>6</v>
@@ -2147,7 +2295,7 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2155,10 +2303,10 @@
         <v>444284162</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E67">
         <v>6</v>
@@ -2167,7 +2315,7 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2175,10 +2323,10 @@
         <v>444284162</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -2187,7 +2335,7 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2195,10 +2343,10 @@
         <v>215770196</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E69">
         <v>6</v>
@@ -2207,7 +2355,7 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2215,10 +2363,10 @@
         <v>215770196</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E70">
         <v>6</v>
@@ -2227,7 +2375,7 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2235,10 +2383,10 @@
         <v>1317756217</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -2247,7 +2395,7 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2255,10 +2403,10 @@
         <v>634893031</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E72">
         <v>5</v>
@@ -2267,7 +2415,7 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2275,13 +2423,13 @@
         <v>472990665</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E73">
         <v>5</v>
@@ -2290,7 +2438,7 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2298,10 +2446,10 @@
         <v>191749113</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -2310,7 +2458,7 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2318,10 +2466,10 @@
         <v>6881805090</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -2330,7 +2478,7 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2338,10 +2486,10 @@
         <v>6881805090</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E76">
         <v>5</v>
@@ -2350,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2358,10 +2506,10 @@
         <v>6881805090</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -2370,7 +2518,7 @@
         <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2378,10 +2526,10 @@
         <v>6881805090</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -2390,7 +2538,7 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2398,10 +2546,10 @@
         <v>6881805090</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -2410,7 +2558,7 @@
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2418,10 +2566,10 @@
         <v>6881805090</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -2430,7 +2578,7 @@
         <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2438,13 +2586,13 @@
         <v>197534512</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -2453,7 +2601,7 @@
         <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2461,10 +2609,10 @@
         <v>6881805090</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -2473,7 +2621,7 @@
         <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2481,10 +2629,10 @@
         <v>376169998</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -2493,7 +2641,7 @@
         <v>8</v>
       </c>
       <c r="G83" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2501,10 +2649,10 @@
         <v>444284162</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -2513,7 +2661,7 @@
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2521,10 +2669,10 @@
         <v>444284162</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -2533,7 +2681,7 @@
         <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2541,10 +2689,10 @@
         <v>376169998</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -2553,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2561,10 +2709,10 @@
         <v>376169998</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -2573,7 +2721,7 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2581,10 +2729,10 @@
         <v>376169998</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -2593,7 +2741,7 @@
         <v>8</v>
       </c>
       <c r="G88" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2601,10 +2749,10 @@
         <v>376169998</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -2613,7 +2761,7 @@
         <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2621,10 +2769,10 @@
         <v>5885288199</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -2633,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2641,10 +2789,10 @@
         <v>5885288199</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -2653,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2661,10 +2809,10 @@
         <v>215770196</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E92">
         <v>5</v>
@@ -2673,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="G92" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2681,10 +2829,10 @@
         <v>215770196</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E93">
         <v>5</v>
@@ -2693,7 +2841,7 @@
         <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2701,10 +2849,10 @@
         <v>215770196</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E94">
         <v>5</v>
@@ -2713,7 +2861,7 @@
         <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2721,10 +2869,10 @@
         <v>8085882885</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -2733,7 +2881,7 @@
         <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2741,10 +2889,10 @@
         <v>8085882885</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -2753,7 +2901,7 @@
         <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2761,10 +2909,10 @@
         <v>6054700257</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D97" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -2773,7 +2921,7 @@
         <v>8</v>
       </c>
       <c r="G97" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2781,10 +2929,10 @@
         <v>5948573509</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -2793,7 +2941,7 @@
         <v>8</v>
       </c>
       <c r="G98" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2801,10 +2949,10 @@
         <v>5885288199</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -2813,7 +2961,7 @@
         <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2821,10 +2969,10 @@
         <v>5885288199</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -2833,7 +2981,7 @@
         <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2841,10 +2989,10 @@
         <v>444284162</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2853,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2861,10 +3009,10 @@
         <v>8085882885</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D102" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2873,7 +3021,7 @@
         <v>8</v>
       </c>
       <c r="G102" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2881,10 +3029,10 @@
         <v>191749113</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2893,7 +3041,7 @@
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2901,10 +3049,10 @@
         <v>444284162</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D104" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -2913,7 +3061,7 @@
         <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2921,10 +3069,10 @@
         <v>444284162</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D105" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -2933,7 +3081,7 @@
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2941,10 +3089,10 @@
         <v>444284162</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2953,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2961,10 +3109,10 @@
         <v>444284162</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D107" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -2973,7 +3121,7 @@
         <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2981,10 +3129,10 @@
         <v>191749113</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -2993,7 +3141,7 @@
         <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3001,10 +3149,10 @@
         <v>376169998</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3013,7 +3161,7 @@
         <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3021,10 +3169,10 @@
         <v>376169998</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3033,7 +3181,7 @@
         <v>8</v>
       </c>
       <c r="G110" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3041,10 +3189,10 @@
         <v>376169998</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3053,7 +3201,7 @@
         <v>8</v>
       </c>
       <c r="G111" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3061,10 +3209,10 @@
         <v>5885288199</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3073,7 +3221,7 @@
         <v>8</v>
       </c>
       <c r="G112" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3081,13 +3229,13 @@
         <v>472990665</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E113">
         <v>31</v>
@@ -3096,7 +3244,7 @@
         <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3104,10 +3252,10 @@
         <v>634893031</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E114">
         <v>31</v>
@@ -3116,7 +3264,7 @@
         <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3124,10 +3272,10 @@
         <v>634893031</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E115">
         <v>31</v>
@@ -3136,7 +3284,7 @@
         <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3144,10 +3292,10 @@
         <v>444284162</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E116">
         <v>31</v>
@@ -3156,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3164,10 +3312,10 @@
         <v>444284162</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E117">
         <v>31</v>
@@ -3176,7 +3324,7 @@
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3184,10 +3332,10 @@
         <v>444284162</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D118" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E118">
         <v>31</v>
@@ -3196,7 +3344,7 @@
         <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3204,10 +3352,10 @@
         <v>191749113</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E119">
         <v>31</v>
@@ -3216,7 +3364,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3224,10 +3372,10 @@
         <v>1317756217</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E120">
         <v>31</v>
@@ -3236,7 +3384,7 @@
         <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3244,10 +3392,10 @@
         <v>191749113</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E121">
         <v>31</v>
@@ -3256,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3264,10 +3412,10 @@
         <v>444284162</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D122" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E122">
         <v>31</v>
@@ -3276,7 +3424,7 @@
         <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3284,10 +3432,10 @@
         <v>191749113</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E123">
         <v>31</v>
@@ -3296,7 +3444,7 @@
         <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3304,7 +3452,7 @@
         <v>5694587157</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E124">
         <v>31</v>
@@ -3313,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3321,10 +3469,10 @@
         <v>263022618</v>
       </c>
       <c r="C125" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D125" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E125">
         <v>31</v>
@@ -3333,7 +3481,7 @@
         <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3341,10 +3489,10 @@
         <v>263022618</v>
       </c>
       <c r="C126" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D126" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E126">
         <v>31</v>
@@ -3353,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="G126" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3361,10 +3509,10 @@
         <v>263022618</v>
       </c>
       <c r="C127" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D127" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E127">
         <v>31</v>
@@ -3373,7 +3521,7 @@
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3381,10 +3529,10 @@
         <v>263022618</v>
       </c>
       <c r="C128" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D128" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3393,7 +3541,7 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3401,10 +3549,10 @@
         <v>5948573509</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E129">
         <v>31</v>
@@ -3413,7 +3561,7 @@
         <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3421,10 +3569,10 @@
         <v>215770196</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E130">
         <v>31</v>
@@ -3433,7 +3581,7 @@
         <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3441,10 +3589,10 @@
         <v>444284162</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D131" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E131">
         <v>31</v>
@@ -3453,7 +3601,7 @@
         <v>7</v>
       </c>
       <c r="G131" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3461,10 +3609,10 @@
         <v>444284162</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D132" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E132">
         <v>31</v>
@@ -3473,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="G132" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3481,10 +3629,10 @@
         <v>444284162</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D133" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E133">
         <v>31</v>
@@ -3493,7 +3641,7 @@
         <v>7</v>
       </c>
       <c r="G133" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3501,10 +3649,10 @@
         <v>444284162</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E134">
         <v>31</v>
@@ -3513,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="G134" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3521,10 +3669,10 @@
         <v>444284162</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D135" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E135">
         <v>31</v>
@@ -3533,7 +3681,7 @@
         <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3541,13 +3689,13 @@
         <v>184404993</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D136" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E136">
         <v>30</v>
@@ -3556,7 +3704,7 @@
         <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3564,10 +3712,10 @@
         <v>191749113</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E137">
         <v>30</v>
@@ -3576,7 +3724,7 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3584,10 +3732,10 @@
         <v>444284162</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D138" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E138">
         <v>30</v>
@@ -3596,7 +3744,7 @@
         <v>7</v>
       </c>
       <c r="G138" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3604,10 +3752,10 @@
         <v>444284162</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D139" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E139">
         <v>30</v>
@@ -3616,7 +3764,7 @@
         <v>7</v>
       </c>
       <c r="G139" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3624,10 +3772,10 @@
         <v>444284162</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D140" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E140">
         <v>30</v>
@@ -3636,7 +3784,7 @@
         <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3644,10 +3792,10 @@
         <v>5885288199</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D141" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E141">
         <v>30</v>
@@ -3656,7 +3804,7 @@
         <v>7</v>
       </c>
       <c r="G141" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3664,10 +3812,10 @@
         <v>5885288199</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D142" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E142">
         <v>30</v>
@@ -3676,7 +3824,7 @@
         <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3684,10 +3832,10 @@
         <v>6881805090</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D143" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E143">
         <v>30</v>
@@ -3696,7 +3844,7 @@
         <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3852,10 @@
         <v>191749113</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -3716,7 +3864,7 @@
         <v>7</v>
       </c>
       <c r="G144" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3724,10 +3872,10 @@
         <v>191749113</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E145">
         <v>30</v>
@@ -3736,7 +3884,7 @@
         <v>7</v>
       </c>
       <c r="G145" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3744,10 +3892,10 @@
         <v>191749113</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E146">
         <v>30</v>
@@ -3756,7 +3904,7 @@
         <v>7</v>
       </c>
       <c r="G146" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3764,10 +3912,10 @@
         <v>231855017</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E147">
         <v>30</v>
@@ -3776,7 +3924,7 @@
         <v>7</v>
       </c>
       <c r="G147" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3784,13 +3932,13 @@
         <v>184404993</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D148" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E148">
         <v>30</v>
@@ -3799,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="G148" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3807,10 +3955,10 @@
         <v>231855017</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E149">
         <v>30</v>
@@ -3819,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3827,10 +3975,10 @@
         <v>231855017</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E150">
         <v>30</v>
@@ -3839,7 +3987,7 @@
         <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3847,10 +3995,10 @@
         <v>231855017</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E151">
         <v>30</v>
@@ -3859,7 +4007,7 @@
         <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3867,10 +4015,10 @@
         <v>8085882885</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D152" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E152">
         <v>30</v>
@@ -3879,7 +4027,7 @@
         <v>7</v>
       </c>
       <c r="G152" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3887,10 +4035,10 @@
         <v>1387762095</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E153">
         <v>30</v>
@@ -3899,7 +4047,7 @@
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3907,10 +4055,10 @@
         <v>1387762095</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -3919,7 +4067,7 @@
         <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3927,10 +4075,10 @@
         <v>444284162</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D155" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E155">
         <v>30</v>
@@ -3939,7 +4087,7 @@
         <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3947,10 +4095,10 @@
         <v>231855017</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E156">
         <v>30</v>
@@ -3959,7 +4107,7 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3967,10 +4115,10 @@
         <v>231855017</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E157">
         <v>30</v>
@@ -3979,7 +4127,7 @@
         <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3987,10 +4135,10 @@
         <v>5885288199</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D158" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E158">
         <v>30</v>
@@ -3999,7 +4147,7 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4007,10 +4155,10 @@
         <v>191749113</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E159">
         <v>29</v>
@@ -4019,7 +4167,7 @@
         <v>7</v>
       </c>
       <c r="G159" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4027,10 +4175,10 @@
         <v>191749113</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E160">
         <v>29</v>
@@ -4039,7 +4187,7 @@
         <v>7</v>
       </c>
       <c r="G160" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4047,7 +4195,7 @@
         <v>5491951442</v>
       </c>
       <c r="C161" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E161">
         <v>29</v>
@@ -4056,7 +4204,7 @@
         <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4064,10 +4212,10 @@
         <v>6881805090</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D162" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E162">
         <v>29</v>
@@ -4076,7 +4224,7 @@
         <v>7</v>
       </c>
       <c r="G162" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4084,10 +4232,10 @@
         <v>6881805090</v>
       </c>
       <c r="C163" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D163" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E163">
         <v>29</v>
@@ -4096,7 +4244,7 @@
         <v>7</v>
       </c>
       <c r="G163" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4104,10 +4252,10 @@
         <v>444284162</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D164" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E164">
         <v>29</v>
@@ -4116,7 +4264,7 @@
         <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4124,10 +4272,10 @@
         <v>444284162</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D165" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E165">
         <v>29</v>
@@ -4136,7 +4284,7 @@
         <v>7</v>
       </c>
       <c r="G165" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4144,10 +4292,10 @@
         <v>444284162</v>
       </c>
       <c r="C166" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E166">
         <v>29</v>
@@ -4156,7 +4304,7 @@
         <v>7</v>
       </c>
       <c r="G166" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4164,10 +4312,10 @@
         <v>215770196</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E167">
         <v>29</v>
@@ -4176,7 +4324,7 @@
         <v>7</v>
       </c>
       <c r="G167" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4184,10 +4332,10 @@
         <v>215770196</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E168">
         <v>29</v>
@@ -4196,7 +4344,7 @@
         <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4204,10 +4352,10 @@
         <v>191749113</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E169">
         <v>29</v>
@@ -4216,7 +4364,7 @@
         <v>7</v>
       </c>
       <c r="G169" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4224,10 +4372,10 @@
         <v>263022618</v>
       </c>
       <c r="C170" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D170" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E170">
         <v>29</v>
@@ -4236,7 +4384,7 @@
         <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4244,10 +4392,10 @@
         <v>263022618</v>
       </c>
       <c r="C171" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D171" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E171">
         <v>29</v>
@@ -4256,7 +4404,7 @@
         <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4264,13 +4412,13 @@
         <v>184404993</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C172" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D172" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E172">
         <v>29</v>
@@ -4279,7 +4427,7 @@
         <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4287,13 +4435,13 @@
         <v>184404993</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D173" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E173">
         <v>29</v>
@@ -4302,7 +4450,7 @@
         <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4310,13 +4458,13 @@
         <v>184404993</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C174" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D174" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E174">
         <v>29</v>
@@ -4325,7 +4473,7 @@
         <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4333,10 +4481,10 @@
         <v>263022618</v>
       </c>
       <c r="C175" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D175" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E175">
         <v>29</v>
@@ -4345,7 +4493,7 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4353,10 +4501,10 @@
         <v>263022618</v>
       </c>
       <c r="C176" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D176" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E176">
         <v>29</v>
@@ -4365,7 +4513,7 @@
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4373,13 +4521,13 @@
         <v>184404993</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C177" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D177" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E177">
         <v>29</v>
@@ -4388,7 +4536,7 @@
         <v>7</v>
       </c>
       <c r="G177" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4396,10 +4544,10 @@
         <v>444284162</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D178" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E178">
         <v>29</v>
@@ -4408,7 +4556,7 @@
         <v>7</v>
       </c>
       <c r="G178" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4416,10 +4564,10 @@
         <v>191749113</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E179">
         <v>29</v>
@@ -4428,7 +4576,7 @@
         <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4436,13 +4584,13 @@
         <v>197534512</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D180" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E180">
         <v>29</v>
@@ -4451,7 +4599,7 @@
         <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4459,10 +4607,10 @@
         <v>5803543484</v>
       </c>
       <c r="B181" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E181">
         <v>29</v>
@@ -4471,7 +4619,7 @@
         <v>7</v>
       </c>
       <c r="G181" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4479,10 +4627,10 @@
         <v>444284162</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D182" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E182">
         <v>29</v>
@@ -4491,7 +4639,7 @@
         <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4499,10 +4647,10 @@
         <v>215770196</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D183" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E183">
         <v>29</v>
@@ -4511,7 +4659,7 @@
         <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4519,10 +4667,10 @@
         <v>444284162</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D184" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E184">
         <v>29</v>
@@ -4531,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="G184" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4539,10 +4687,10 @@
         <v>444284162</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D185" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E185">
         <v>29</v>
@@ -4551,7 +4699,7 @@
         <v>7</v>
       </c>
       <c r="G185" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4559,10 +4707,10 @@
         <v>444284162</v>
       </c>
       <c r="C186" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D186" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E186">
         <v>29</v>
@@ -4571,7 +4719,7 @@
         <v>7</v>
       </c>
       <c r="G186" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4579,10 +4727,10 @@
         <v>5803543484</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C187" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E187">
         <v>29</v>
@@ -4591,7 +4739,7 @@
         <v>7</v>
       </c>
       <c r="G187" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4599,10 +4747,10 @@
         <v>444284162</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D188" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E188">
         <v>29</v>
@@ -4611,7 +4759,7 @@
         <v>7</v>
       </c>
       <c r="G188" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4619,10 +4767,10 @@
         <v>5885288199</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D189" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E189">
         <v>29</v>
@@ -4631,7 +4779,7 @@
         <v>7</v>
       </c>
       <c r="G189" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4639,10 +4787,10 @@
         <v>444284162</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D190" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E190">
         <v>29</v>
@@ -4651,7 +4799,7 @@
         <v>7</v>
       </c>
       <c r="G190" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4659,10 +4807,10 @@
         <v>444284162</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D191" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E191">
         <v>29</v>
@@ -4671,7 +4819,7 @@
         <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4679,10 +4827,10 @@
         <v>6881805090</v>
       </c>
       <c r="C192" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D192" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E192">
         <v>29</v>
@@ -4691,7 +4839,7 @@
         <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4699,10 +4847,10 @@
         <v>5803543484</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C193" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E193">
         <v>29</v>
@@ -4711,7 +4859,7 @@
         <v>7</v>
       </c>
       <c r="G193" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4719,10 +4867,10 @@
         <v>5885288199</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D194" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E194">
         <v>28</v>
@@ -4731,7 +4879,7 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4739,10 +4887,10 @@
         <v>5885288199</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D195" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E195">
         <v>28</v>
@@ -4751,7 +4899,7 @@
         <v>7</v>
       </c>
       <c r="G195" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4759,10 +4907,10 @@
         <v>444284162</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D196" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E196">
         <v>28</v>
@@ -4771,7 +4919,7 @@
         <v>7</v>
       </c>
       <c r="G196" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4779,10 +4927,10 @@
         <v>263022618</v>
       </c>
       <c r="C197" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D197" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E197">
         <v>28</v>
@@ -4791,7 +4939,7 @@
         <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4799,10 +4947,10 @@
         <v>263022618</v>
       </c>
       <c r="C198" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D198" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E198">
         <v>28</v>
@@ -4811,7 +4959,7 @@
         <v>7</v>
       </c>
       <c r="G198" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4819,10 +4967,10 @@
         <v>444284162</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D199" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E199">
         <v>28</v>
@@ -4831,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4839,10 +4987,10 @@
         <v>6881805090</v>
       </c>
       <c r="C200" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D200" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E200">
         <v>28</v>
@@ -4851,7 +4999,7 @@
         <v>7</v>
       </c>
       <c r="G200" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4859,10 +5007,10 @@
         <v>444284162</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D201" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E201">
         <v>28</v>
@@ -4871,7 +5019,7 @@
         <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -4879,13 +5027,13 @@
         <v>197534512</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D202" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E202">
         <v>28</v>
@@ -4894,7 +5042,7 @@
         <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -4902,10 +5050,10 @@
         <v>6881805090</v>
       </c>
       <c r="C203" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D203" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E203">
         <v>28</v>
@@ -4914,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="G203" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -4922,10 +5070,10 @@
         <v>5803543484</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C204" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E204">
         <v>28</v>
@@ -4934,7 +5082,7 @@
         <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -4942,10 +5090,10 @@
         <v>5803543484</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C205" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E205">
         <v>28</v>
@@ -4954,7 +5102,7 @@
         <v>7</v>
       </c>
       <c r="G205" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -4962,10 +5110,10 @@
         <v>5803543484</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C206" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E206">
         <v>28</v>
@@ -4974,7 +5122,7 @@
         <v>7</v>
       </c>
       <c r="G206" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -4982,7 +5130,7 @@
         <v>600960219</v>
       </c>
       <c r="C207" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E207">
         <v>28</v>
@@ -4991,7 +5139,7 @@
         <v>7</v>
       </c>
       <c r="G207" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -4999,10 +5147,10 @@
         <v>444284162</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D208" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E208">
         <v>28</v>
@@ -5011,7 +5159,7 @@
         <v>7</v>
       </c>
       <c r="G208" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5019,10 +5167,10 @@
         <v>5803543484</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C209" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E209">
         <v>28</v>
@@ -5031,7 +5179,7 @@
         <v>7</v>
       </c>
       <c r="G209" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5039,10 +5187,10 @@
         <v>5803543484</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C210" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E210">
         <v>28</v>
@@ -5051,7 +5199,7 @@
         <v>7</v>
       </c>
       <c r="G210" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5059,10 +5207,10 @@
         <v>444284162</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D211" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E211">
         <v>28</v>
@@ -5071,7 +5219,7 @@
         <v>7</v>
       </c>
       <c r="G211" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5079,10 +5227,10 @@
         <v>444284162</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D212" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E212">
         <v>28</v>
@@ -5091,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="G212" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5099,10 +5247,10 @@
         <v>444284162</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D213" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E213">
         <v>28</v>
@@ -5111,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="G213" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5119,10 +5267,10 @@
         <v>5803543484</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C214" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E214">
         <v>28</v>
@@ -5131,7 +5279,7 @@
         <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5139,10 +5287,10 @@
         <v>6881805090</v>
       </c>
       <c r="C215" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D215" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E215">
         <v>28</v>
@@ -5151,7 +5299,7 @@
         <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5159,10 +5307,10 @@
         <v>6881805090</v>
       </c>
       <c r="C216" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D216" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E216">
         <v>28</v>
@@ -5171,7 +5319,7 @@
         <v>7</v>
       </c>
       <c r="G216" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5179,10 +5327,10 @@
         <v>5803543484</v>
       </c>
       <c r="B217" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C217" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E217">
         <v>28</v>
@@ -5191,7 +5339,7 @@
         <v>7</v>
       </c>
       <c r="G217" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5199,10 +5347,10 @@
         <v>444284162</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D218" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E218">
         <v>28</v>
@@ -5211,7 +5359,7 @@
         <v>7</v>
       </c>
       <c r="G218" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5219,10 +5367,10 @@
         <v>5803543484</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C219" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E219">
         <v>28</v>
@@ -5231,7 +5379,7 @@
         <v>7</v>
       </c>
       <c r="G219" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5239,10 +5387,10 @@
         <v>1387762095</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E220">
         <v>28</v>
@@ -5251,7 +5399,7 @@
         <v>7</v>
       </c>
       <c r="G220" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5259,10 +5407,10 @@
         <v>444284162</v>
       </c>
       <c r="C221" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D221" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E221">
         <v>28</v>
@@ -5271,7 +5419,7 @@
         <v>7</v>
       </c>
       <c r="G221" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5279,10 +5427,10 @@
         <v>444284162</v>
       </c>
       <c r="C222" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D222" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E222">
         <v>28</v>
@@ -5291,7 +5439,7 @@
         <v>7</v>
       </c>
       <c r="G222" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5299,10 +5447,10 @@
         <v>444284162</v>
       </c>
       <c r="C223" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D223" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E223">
         <v>28</v>
@@ -5311,7 +5459,7 @@
         <v>7</v>
       </c>
       <c r="G223" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5319,10 +5467,10 @@
         <v>215770196</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D224" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E224">
         <v>28</v>
@@ -5331,18 +5479,18 @@
         <v>7</v>
       </c>
       <c r="G224" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225">
         <v>5961964824</v>
       </c>
       <c r="C225" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D225" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E225">
         <v>28</v>
@@ -5351,18 +5499,18 @@
         <v>7</v>
       </c>
       <c r="G225" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226">
         <v>5885288199</v>
       </c>
       <c r="C226" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D226" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E226">
         <v>28</v>
@@ -5371,18 +5519,18 @@
         <v>7</v>
       </c>
       <c r="G226" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227">
         <v>5885288199</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D227" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E227">
         <v>28</v>
@@ -5391,18 +5539,18 @@
         <v>7</v>
       </c>
       <c r="G227" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228">
         <v>5885288199</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D228" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E228">
         <v>28</v>
@@ -5411,18 +5559,18 @@
         <v>7</v>
       </c>
       <c r="G228" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229">
         <v>5961964824</v>
       </c>
       <c r="C229" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D229" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E229">
         <v>26</v>
@@ -5431,18 +5579,18 @@
         <v>7</v>
       </c>
       <c r="G229" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230">
         <v>1317756217</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E230">
         <v>25</v>
@@ -5451,18 +5599,18 @@
         <v>7</v>
       </c>
       <c r="G230" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231">
         <v>1317756217</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C231" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E231">
         <v>25</v>
@@ -5471,15 +5619,15 @@
         <v>7</v>
       </c>
       <c r="G231" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232">
         <v>198540983</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E232">
         <v>25</v>
@@ -5488,21 +5636,21 @@
         <v>7</v>
       </c>
       <c r="G232" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233">
         <v>197534512</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D233" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E233">
         <v>25</v>
@@ -5511,18 +5659,18 @@
         <v>7</v>
       </c>
       <c r="G233" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234">
         <v>8085882885</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D234" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E234">
         <v>25</v>
@@ -5531,18 +5679,18 @@
         <v>7</v>
       </c>
       <c r="G234" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
       <c r="A235">
         <v>376169998</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D235" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E235">
         <v>25</v>
@@ -5551,7 +5699,976 @@
         <v>7</v>
       </c>
       <c r="G235" t="s">
-        <v>148</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236">
+        <v>999024757</v>
+      </c>
+      <c r="B236" t="s">
+        <v>21</v>
+      </c>
+      <c r="C236" t="s">
+        <v>50</v>
+      </c>
+      <c r="D236" t="s">
+        <v>67</v>
+      </c>
+      <c r="E236">
+        <v>13</v>
+      </c>
+      <c r="F236">
+        <v>8</v>
+      </c>
+      <c r="G236" t="s">
+        <v>160</v>
+      </c>
+      <c r="H236">
+        <v>2025</v>
+      </c>
+      <c r="I236" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J236" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237">
+        <v>263022618</v>
+      </c>
+      <c r="C237" t="s">
+        <v>43</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237">
+        <v>13</v>
+      </c>
+      <c r="F237">
+        <v>8</v>
+      </c>
+      <c r="G237" t="s">
+        <v>161</v>
+      </c>
+      <c r="H237">
+        <v>2025</v>
+      </c>
+      <c r="I237" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J237" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238">
+        <v>6881805090</v>
+      </c>
+      <c r="C238" t="s">
+        <v>32</v>
+      </c>
+      <c r="D238" t="s">
+        <v>58</v>
+      </c>
+      <c r="E238">
+        <v>13</v>
+      </c>
+      <c r="F238">
+        <v>8</v>
+      </c>
+      <c r="G238" t="s">
+        <v>162</v>
+      </c>
+      <c r="H238">
+        <v>2025</v>
+      </c>
+      <c r="I238" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J238" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239">
+        <v>600960219</v>
+      </c>
+      <c r="C239" t="s">
+        <v>48</v>
+      </c>
+      <c r="E239">
+        <v>13</v>
+      </c>
+      <c r="F239">
+        <v>8</v>
+      </c>
+      <c r="G239" t="s">
+        <v>163</v>
+      </c>
+      <c r="H239">
+        <v>2025</v>
+      </c>
+      <c r="I239" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J239" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240">
+        <v>6881805090</v>
+      </c>
+      <c r="C240" t="s">
+        <v>32</v>
+      </c>
+      <c r="D240" t="s">
+        <v>58</v>
+      </c>
+      <c r="E240">
+        <v>13</v>
+      </c>
+      <c r="F240">
+        <v>8</v>
+      </c>
+      <c r="G240" t="s">
+        <v>162</v>
+      </c>
+      <c r="H240">
+        <v>2025</v>
+      </c>
+      <c r="I240" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J240" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241">
+        <v>444284162</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>55</v>
+      </c>
+      <c r="E241">
+        <v>13</v>
+      </c>
+      <c r="F241">
+        <v>8</v>
+      </c>
+      <c r="G241" t="s">
+        <v>164</v>
+      </c>
+      <c r="H241">
+        <v>2025</v>
+      </c>
+      <c r="I241" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J241" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242">
+        <v>197534512</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>29</v>
+      </c>
+      <c r="D242" t="s">
+        <v>56</v>
+      </c>
+      <c r="E242">
+        <v>13</v>
+      </c>
+      <c r="F242">
+        <v>8</v>
+      </c>
+      <c r="G242" t="s">
+        <v>165</v>
+      </c>
+      <c r="H242">
+        <v>2025</v>
+      </c>
+      <c r="I242" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J242" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243">
+        <v>472990665</v>
+      </c>
+      <c r="B243" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" t="s">
+        <v>36</v>
+      </c>
+      <c r="D243" t="s">
+        <v>61</v>
+      </c>
+      <c r="E243">
+        <v>13</v>
+      </c>
+      <c r="F243">
+        <v>8</v>
+      </c>
+      <c r="G243" t="s">
+        <v>166</v>
+      </c>
+      <c r="H243">
+        <v>2025</v>
+      </c>
+      <c r="I243" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J243" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244">
+        <v>1855522970</v>
+      </c>
+      <c r="B244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" t="s">
+        <v>24</v>
+      </c>
+      <c r="E244">
+        <v>13</v>
+      </c>
+      <c r="F244">
+        <v>8</v>
+      </c>
+      <c r="G244" t="s">
+        <v>167</v>
+      </c>
+      <c r="H244">
+        <v>2025</v>
+      </c>
+      <c r="I244" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J244" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245">
+        <v>1855522970</v>
+      </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" t="s">
+        <v>24</v>
+      </c>
+      <c r="E245">
+        <v>13</v>
+      </c>
+      <c r="F245">
+        <v>8</v>
+      </c>
+      <c r="G245" t="s">
+        <v>167</v>
+      </c>
+      <c r="H245">
+        <v>2025</v>
+      </c>
+      <c r="I245" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J245" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="A246">
+        <v>1855522970</v>
+      </c>
+      <c r="B246" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246">
+        <v>13</v>
+      </c>
+      <c r="F246">
+        <v>8</v>
+      </c>
+      <c r="G246" t="s">
+        <v>167</v>
+      </c>
+      <c r="H246">
+        <v>2025</v>
+      </c>
+      <c r="I246" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J246" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247">
+        <v>1855522970</v>
+      </c>
+      <c r="B247" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" t="s">
+        <v>24</v>
+      </c>
+      <c r="E247">
+        <v>13</v>
+      </c>
+      <c r="F247">
+        <v>8</v>
+      </c>
+      <c r="G247" t="s">
+        <v>167</v>
+      </c>
+      <c r="H247">
+        <v>2025</v>
+      </c>
+      <c r="I247" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J247" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="A248">
+        <v>5885288199</v>
+      </c>
+      <c r="C248" t="s">
+        <v>30</v>
+      </c>
+      <c r="D248" t="s">
+        <v>57</v>
+      </c>
+      <c r="E248">
+        <v>13</v>
+      </c>
+      <c r="F248">
+        <v>8</v>
+      </c>
+      <c r="G248" t="s">
+        <v>168</v>
+      </c>
+      <c r="H248">
+        <v>2025</v>
+      </c>
+      <c r="I248" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J248" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
+      <c r="A249">
+        <v>5742326364</v>
+      </c>
+      <c r="B249" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" t="s">
+        <v>51</v>
+      </c>
+      <c r="D249" t="s">
+        <v>68</v>
+      </c>
+      <c r="E249">
+        <v>13</v>
+      </c>
+      <c r="F249">
+        <v>8</v>
+      </c>
+      <c r="G249" t="s">
+        <v>169</v>
+      </c>
+      <c r="H249">
+        <v>2025</v>
+      </c>
+      <c r="I249" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J249" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250">
+        <v>472990665</v>
+      </c>
+      <c r="B250" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" t="s">
+        <v>36</v>
+      </c>
+      <c r="D250" t="s">
+        <v>61</v>
+      </c>
+      <c r="E250">
+        <v>13</v>
+      </c>
+      <c r="F250">
+        <v>8</v>
+      </c>
+      <c r="G250" t="s">
+        <v>166</v>
+      </c>
+      <c r="H250">
+        <v>2025</v>
+      </c>
+      <c r="I250" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J250" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="A251">
+        <v>444284162</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>55</v>
+      </c>
+      <c r="E251">
+        <v>13</v>
+      </c>
+      <c r="F251">
+        <v>8</v>
+      </c>
+      <c r="G251" t="s">
+        <v>164</v>
+      </c>
+      <c r="H251">
+        <v>2025</v>
+      </c>
+      <c r="I251" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J251" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252">
+        <v>1855522970</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>24</v>
+      </c>
+      <c r="E252">
+        <v>12</v>
+      </c>
+      <c r="F252">
+        <v>8</v>
+      </c>
+      <c r="G252" t="s">
+        <v>170</v>
+      </c>
+      <c r="H252">
+        <v>2025</v>
+      </c>
+      <c r="I252" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J252" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253">
+        <v>600960219</v>
+      </c>
+      <c r="C253" t="s">
+        <v>48</v>
+      </c>
+      <c r="E253">
+        <v>12</v>
+      </c>
+      <c r="F253">
+        <v>8</v>
+      </c>
+      <c r="G253" t="s">
+        <v>171</v>
+      </c>
+      <c r="H253">
+        <v>2025</v>
+      </c>
+      <c r="I253" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J253" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="A254">
+        <v>600960219</v>
+      </c>
+      <c r="C254" t="s">
+        <v>48</v>
+      </c>
+      <c r="E254">
+        <v>12</v>
+      </c>
+      <c r="F254">
+        <v>8</v>
+      </c>
+      <c r="G254" t="s">
+        <v>171</v>
+      </c>
+      <c r="H254">
+        <v>2025</v>
+      </c>
+      <c r="I254" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J254" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="A255">
+        <v>999024757</v>
+      </c>
+      <c r="B255" t="s">
+        <v>21</v>
+      </c>
+      <c r="C255" t="s">
+        <v>50</v>
+      </c>
+      <c r="D255" t="s">
+        <v>67</v>
+      </c>
+      <c r="E255">
+        <v>12</v>
+      </c>
+      <c r="F255">
+        <v>8</v>
+      </c>
+      <c r="G255" t="s">
+        <v>172</v>
+      </c>
+      <c r="H255">
+        <v>2025</v>
+      </c>
+      <c r="I255" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J255" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="A256">
+        <v>999024757</v>
+      </c>
+      <c r="B256" t="s">
+        <v>21</v>
+      </c>
+      <c r="C256" t="s">
+        <v>50</v>
+      </c>
+      <c r="D256" t="s">
+        <v>67</v>
+      </c>
+      <c r="E256">
+        <v>12</v>
+      </c>
+      <c r="F256">
+        <v>8</v>
+      </c>
+      <c r="G256" t="s">
+        <v>172</v>
+      </c>
+      <c r="H256">
+        <v>2025</v>
+      </c>
+      <c r="I256" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J256" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257">
+        <v>1855522970</v>
+      </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>24</v>
+      </c>
+      <c r="E257">
+        <v>12</v>
+      </c>
+      <c r="F257">
+        <v>8</v>
+      </c>
+      <c r="G257" t="s">
+        <v>170</v>
+      </c>
+      <c r="H257">
+        <v>2025</v>
+      </c>
+      <c r="I257" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J257" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="A258">
+        <v>1855522970</v>
+      </c>
+      <c r="B258" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" t="s">
+        <v>24</v>
+      </c>
+      <c r="E258">
+        <v>12</v>
+      </c>
+      <c r="F258">
+        <v>8</v>
+      </c>
+      <c r="G258" t="s">
+        <v>170</v>
+      </c>
+      <c r="H258">
+        <v>2025</v>
+      </c>
+      <c r="I258" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J258" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
+      <c r="A259">
+        <v>444284162</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>55</v>
+      </c>
+      <c r="E259">
+        <v>12</v>
+      </c>
+      <c r="F259">
+        <v>8</v>
+      </c>
+      <c r="G259" t="s">
+        <v>173</v>
+      </c>
+      <c r="H259">
+        <v>2025</v>
+      </c>
+      <c r="I259" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J259" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="A260">
+        <v>444284162</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>55</v>
+      </c>
+      <c r="E260">
+        <v>12</v>
+      </c>
+      <c r="F260">
+        <v>8</v>
+      </c>
+      <c r="G260" t="s">
+        <v>173</v>
+      </c>
+      <c r="H260">
+        <v>2025</v>
+      </c>
+      <c r="I260" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J260" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="A261">
+        <v>444284162</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>55</v>
+      </c>
+      <c r="E261">
+        <v>12</v>
+      </c>
+      <c r="F261">
+        <v>8</v>
+      </c>
+      <c r="G261" t="s">
+        <v>173</v>
+      </c>
+      <c r="H261">
+        <v>2025</v>
+      </c>
+      <c r="I261" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J261" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262">
+        <v>1272726249</v>
+      </c>
+      <c r="B262" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262" t="s">
+        <v>52</v>
+      </c>
+      <c r="D262" t="s">
+        <v>68</v>
+      </c>
+      <c r="E262">
+        <v>12</v>
+      </c>
+      <c r="F262">
+        <v>8</v>
+      </c>
+      <c r="G262" t="s">
+        <v>174</v>
+      </c>
+      <c r="H262">
+        <v>2025</v>
+      </c>
+      <c r="I262" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J262" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
+      <c r="A263">
+        <v>1855522970</v>
+      </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>24</v>
+      </c>
+      <c r="E263">
+        <v>12</v>
+      </c>
+      <c r="F263">
+        <v>8</v>
+      </c>
+      <c r="G263" t="s">
+        <v>170</v>
+      </c>
+      <c r="H263">
+        <v>2025</v>
+      </c>
+      <c r="I263" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J263" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="A264">
+        <v>444284162</v>
+      </c>
+      <c r="C264" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" t="s">
+        <v>55</v>
+      </c>
+      <c r="E264">
+        <v>12</v>
+      </c>
+      <c r="F264">
+        <v>8</v>
+      </c>
+      <c r="G264" t="s">
+        <v>173</v>
+      </c>
+      <c r="H264">
+        <v>2025</v>
+      </c>
+      <c r="I264" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J264" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="A265">
+        <v>215770196</v>
+      </c>
+      <c r="C265" t="s">
+        <v>27</v>
+      </c>
+      <c r="D265" t="s">
+        <v>54</v>
+      </c>
+      <c r="E265">
+        <v>12</v>
+      </c>
+      <c r="F265">
+        <v>8</v>
+      </c>
+      <c r="G265" t="s">
+        <v>175</v>
+      </c>
+      <c r="H265">
+        <v>2025</v>
+      </c>
+      <c r="I265" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J265" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="A266">
+        <v>600960219</v>
+      </c>
+      <c r="C266" t="s">
+        <v>48</v>
+      </c>
+      <c r="E266">
+        <v>12</v>
+      </c>
+      <c r="F266">
+        <v>8</v>
+      </c>
+      <c r="G266" t="s">
+        <v>171</v>
+      </c>
+      <c r="H266">
+        <v>2025</v>
+      </c>
+      <c r="I266" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J266" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
+      <c r="A267">
+        <v>215770196</v>
+      </c>
+      <c r="C267" t="s">
+        <v>27</v>
+      </c>
+      <c r="D267" t="s">
+        <v>54</v>
+      </c>
+      <c r="E267">
+        <v>12</v>
+      </c>
+      <c r="F267">
+        <v>8</v>
+      </c>
+      <c r="G267" t="s">
+        <v>175</v>
+      </c>
+      <c r="H267">
+        <v>2025</v>
+      </c>
+      <c r="I267" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J267" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="A268">
+        <v>5885288199</v>
+      </c>
+      <c r="C268" t="s">
+        <v>30</v>
+      </c>
+      <c r="D268" t="s">
+        <v>57</v>
+      </c>
+      <c r="E268">
+        <v>12</v>
+      </c>
+      <c r="F268">
+        <v>8</v>
+      </c>
+      <c r="G268" t="s">
+        <v>176</v>
+      </c>
+      <c r="H268">
+        <v>2025</v>
+      </c>
+      <c r="I268" s="2">
+        <v>45882.61575673611</v>
+      </c>
+      <c r="J268" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/result_geral.xlsx
+++ b/result_geral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="149">
   <si>
     <t>user_id_telegram</t>
   </si>
@@ -37,15 +37,6 @@
     <t>local_arquivo</t>
   </si>
   <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>data_execucao_robo</t>
-  </si>
-  <si>
-    <t>chave</t>
-  </si>
-  <si>
     <t>David_LuizPGO</t>
   </si>
   <si>
@@ -79,15 +70,6 @@
     <t>MaikeFranco</t>
   </si>
   <si>
-    <t>lucas_nrocha</t>
-  </si>
-  <si>
-    <t>AntonioTST2023</t>
-  </si>
-  <si>
-    <t>Kelvin_ASSantos</t>
-  </si>
-  <si>
     <t>David Luiz</t>
   </si>
   <si>
@@ -166,15 +148,6 @@
     <t>ALEX</t>
   </si>
   <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Antonio Marcos</t>
-  </si>
-  <si>
-    <t>Kelvin</t>
-  </si>
-  <si>
     <t>Franco</t>
   </si>
   <si>
@@ -217,12 +190,6 @@
     <t>Ribeiro</t>
   </si>
   <si>
-    <t>Rocha</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
     <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1855522970_David_LuizPGO_David Luiz_None_2025_08_11</t>
   </si>
   <si>
@@ -494,117 +461,12 @@
   </si>
   <si>
     <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/376169998_None_Michel_Franco_2025_07_25</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/999024757_lucas_nrocha_Lucas_Rocha_2025_08_13</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/263022618_None_Felipe_Polonio_2025_08_13</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/6881805090_None_Frederico_Apoio BKB 43_2025_08_13</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/600960219_None_Rodrigo ico_None_2025_08_13</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/444284162_None_Rafael_Verruch_2025_08_13</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/197534512_Cristiano_Gomez_Cristiano_Gomez_2025_08_13</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/472990665_JaqueOliveiraQSMS_Jaque Oliveira_QSMS_2025_08_13</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1855522970_David_LuizPGO_David Luiz_None_2025_08_13</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/5885288199_None_Odair_Rocha Da Silva_2025_08_13</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/5742326364_AntonioTST2023_Antonio Marcos_Santos_2025_08_13</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1855522970_David_LuizPGO_David Luiz_None_2025_08_12</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/600960219_None_Rodrigo ico_None_2025_08_12</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/999024757_lucas_nrocha_Lucas_Rocha_2025_08_12</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/444284162_None_Rafael_Verruch_2025_08_12</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1272726249_Kelvin_ASSantos_Kelvin_Santos_2025_08_12</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/215770196_None_Lincon_Trentin_2025_08_12</t>
-  </si>
-  <si>
-    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/5885288199_None_Odair_Rocha Da Silva_2025_08_12</t>
-  </si>
-  <si>
-    <t>999024757_13_8_2025</t>
-  </si>
-  <si>
-    <t>263022618_13_8_2025</t>
-  </si>
-  <si>
-    <t>6881805090_13_8_2025</t>
-  </si>
-  <si>
-    <t>600960219_13_8_2025</t>
-  </si>
-  <si>
-    <t>444284162_13_8_2025</t>
-  </si>
-  <si>
-    <t>197534512_13_8_2025</t>
-  </si>
-  <si>
-    <t>472990665_13_8_2025</t>
-  </si>
-  <si>
-    <t>1855522970_13_8_2025</t>
-  </si>
-  <si>
-    <t>5885288199_13_8_2025</t>
-  </si>
-  <si>
-    <t>5742326364_13_8_2025</t>
-  </si>
-  <si>
-    <t>1855522970_12_8_2025</t>
-  </si>
-  <si>
-    <t>600960219_12_8_2025</t>
-  </si>
-  <si>
-    <t>999024757_12_8_2025</t>
-  </si>
-  <si>
-    <t>444284162_12_8_2025</t>
-  </si>
-  <si>
-    <t>1272726249_12_8_2025</t>
-  </si>
-  <si>
-    <t>215770196_12_8_2025</t>
-  </si>
-  <si>
-    <t>5885288199_12_8_2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -657,12 +519,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,13 +818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J268"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -985,25 +846,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1855522970</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -1012,18 +864,18 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1855522970</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1032,18 +884,18 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1387762095</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -1052,18 +904,18 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1855522970</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -1072,18 +924,18 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1855522970</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -1092,18 +944,18 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>376169998</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -1112,18 +964,18 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>376169998</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>11</v>
@@ -1132,18 +984,18 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>376169998</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -1152,18 +1004,18 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>376169998</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>11</v>
@@ -1172,18 +1024,18 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>215770196</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>11</v>
@@ -1192,18 +1044,18 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>215770196</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1212,18 +1064,18 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>376169998</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -1232,18 +1084,18 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1387762095</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -1252,18 +1104,18 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1855522970</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>11</v>
@@ -1272,18 +1124,18 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1855522970</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>11</v>
@@ -1292,7 +1144,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1300,10 +1152,10 @@
         <v>444284162</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -1312,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1320,13 +1172,13 @@
         <v>197534512</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -1335,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1343,10 +1195,10 @@
         <v>1387762095</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -1355,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1363,10 +1215,10 @@
         <v>5885288199</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>11</v>
@@ -1375,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1383,7 +1235,7 @@
         <v>198540983</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -1392,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1400,7 +1252,7 @@
         <v>198540983</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>11</v>
@@ -1409,7 +1261,7 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1417,10 +1269,10 @@
         <v>6881805090</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>11</v>
@@ -1429,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1437,10 +1289,10 @@
         <v>1454238617</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>11</v>
@@ -1449,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1457,10 +1309,10 @@
         <v>444284162</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>11</v>
@@ -1469,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1477,10 +1329,10 @@
         <v>444284162</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>11</v>
@@ -1489,7 +1341,7 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1497,10 +1349,10 @@
         <v>444284162</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -1509,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1517,10 +1369,10 @@
         <v>8085882885</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -1529,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1537,10 +1389,10 @@
         <v>1855522970</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -1549,7 +1401,7 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1557,13 +1409,13 @@
         <v>278842749</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -1572,7 +1424,7 @@
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1580,10 +1432,10 @@
         <v>8085882885</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -1592,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1600,13 +1452,13 @@
         <v>472990665</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -1615,7 +1467,7 @@
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1623,10 +1475,10 @@
         <v>444284162</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -1635,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1643,10 +1495,10 @@
         <v>215770196</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -1655,7 +1507,7 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1663,10 +1515,10 @@
         <v>215770196</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E35">
         <v>8</v>
@@ -1675,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1683,10 +1535,10 @@
         <v>376169998</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -1695,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1703,10 +1555,10 @@
         <v>376169998</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -1715,7 +1567,7 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1723,10 +1575,10 @@
         <v>376169998</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -1735,7 +1587,7 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1743,10 +1595,10 @@
         <v>376169998</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -1755,7 +1607,7 @@
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1763,10 +1615,10 @@
         <v>6054700257</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E40">
         <v>7</v>
@@ -1775,7 +1627,7 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1783,10 +1635,10 @@
         <v>634893031</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -1795,7 +1647,7 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1803,10 +1655,10 @@
         <v>1855522970</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>7</v>
@@ -1815,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1823,10 +1675,10 @@
         <v>1855522970</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -1835,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1843,10 +1695,10 @@
         <v>444284162</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E44">
         <v>7</v>
@@ -1855,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1863,10 +1715,10 @@
         <v>191749113</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E45">
         <v>7</v>
@@ -1875,7 +1727,7 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1883,10 +1735,10 @@
         <v>444284162</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E46">
         <v>7</v>
@@ -1895,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1903,10 +1755,10 @@
         <v>1387762095</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>7</v>
@@ -1915,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1923,10 +1775,10 @@
         <v>6054700257</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E48">
         <v>7</v>
@@ -1935,7 +1787,7 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1943,10 +1795,10 @@
         <v>1387762095</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E49">
         <v>7</v>
@@ -1955,7 +1807,7 @@
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1963,10 +1815,10 @@
         <v>444284162</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -1975,7 +1827,7 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1983,10 +1835,10 @@
         <v>444284162</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E51">
         <v>7</v>
@@ -1995,7 +1847,7 @@
         <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2003,10 +1855,10 @@
         <v>1387762095</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>7</v>
@@ -2015,7 +1867,7 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2023,10 +1875,10 @@
         <v>444284162</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -2035,7 +1887,7 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2043,10 +1895,10 @@
         <v>8085882885</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E54">
         <v>7</v>
@@ -2055,7 +1907,7 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2063,10 +1915,10 @@
         <v>215770196</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -2075,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2083,10 +1935,10 @@
         <v>444284162</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -2095,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2103,10 +1955,10 @@
         <v>444284162</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -2115,7 +1967,7 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2123,10 +1975,10 @@
         <v>444284162</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E58">
         <v>6</v>
@@ -2135,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2143,10 +1995,10 @@
         <v>444284162</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -2155,7 +2007,7 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2163,10 +2015,10 @@
         <v>444284162</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E60">
         <v>6</v>
@@ -2175,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2183,10 +2035,10 @@
         <v>444284162</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -2195,7 +2047,7 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2203,10 +2055,10 @@
         <v>6054700257</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E62">
         <v>6</v>
@@ -2215,7 +2067,7 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2223,10 +2075,10 @@
         <v>6054700257</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -2235,7 +2087,7 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2243,10 +2095,10 @@
         <v>5885288199</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E64">
         <v>6</v>
@@ -2255,7 +2107,7 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2263,10 +2115,10 @@
         <v>5885288199</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -2275,7 +2127,7 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2283,10 +2135,10 @@
         <v>444284162</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E66">
         <v>6</v>
@@ -2295,7 +2147,7 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2303,10 +2155,10 @@
         <v>444284162</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E67">
         <v>6</v>
@@ -2315,7 +2167,7 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2323,10 +2175,10 @@
         <v>444284162</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -2335,7 +2187,7 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2343,10 +2195,10 @@
         <v>215770196</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E69">
         <v>6</v>
@@ -2355,7 +2207,7 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2363,10 +2215,10 @@
         <v>215770196</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E70">
         <v>6</v>
@@ -2375,7 +2227,7 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2383,10 +2235,10 @@
         <v>1317756217</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -2395,7 +2247,7 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2403,10 +2255,10 @@
         <v>634893031</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E72">
         <v>5</v>
@@ -2415,7 +2267,7 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2423,13 +2275,13 @@
         <v>472990665</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E73">
         <v>5</v>
@@ -2438,7 +2290,7 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2446,10 +2298,10 @@
         <v>191749113</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -2458,7 +2310,7 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2466,10 +2318,10 @@
         <v>6881805090</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -2478,7 +2330,7 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2486,10 +2338,10 @@
         <v>6881805090</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E76">
         <v>5</v>
@@ -2498,7 +2350,7 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2506,10 +2358,10 @@
         <v>6881805090</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -2518,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2526,10 +2378,10 @@
         <v>6881805090</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -2538,7 +2390,7 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2546,10 +2398,10 @@
         <v>6881805090</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -2558,7 +2410,7 @@
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2566,10 +2418,10 @@
         <v>6881805090</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -2578,7 +2430,7 @@
         <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2586,13 +2438,13 @@
         <v>197534512</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -2601,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2609,10 +2461,10 @@
         <v>6881805090</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -2621,7 +2473,7 @@
         <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2629,10 +2481,10 @@
         <v>376169998</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -2641,7 +2493,7 @@
         <v>8</v>
       </c>
       <c r="G83" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2649,10 +2501,10 @@
         <v>444284162</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -2661,7 +2513,7 @@
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2669,10 +2521,10 @@
         <v>444284162</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -2681,7 +2533,7 @@
         <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2689,10 +2541,10 @@
         <v>376169998</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -2701,7 +2553,7 @@
         <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2709,10 +2561,10 @@
         <v>376169998</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -2721,7 +2573,7 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2729,10 +2581,10 @@
         <v>376169998</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -2741,7 +2593,7 @@
         <v>8</v>
       </c>
       <c r="G88" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2749,10 +2601,10 @@
         <v>376169998</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -2761,7 +2613,7 @@
         <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2769,10 +2621,10 @@
         <v>5885288199</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -2781,7 +2633,7 @@
         <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2789,10 +2641,10 @@
         <v>5885288199</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -2801,7 +2653,7 @@
         <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2809,10 +2661,10 @@
         <v>215770196</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E92">
         <v>5</v>
@@ -2821,7 +2673,7 @@
         <v>8</v>
       </c>
       <c r="G92" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2829,10 +2681,10 @@
         <v>215770196</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E93">
         <v>5</v>
@@ -2841,7 +2693,7 @@
         <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2849,10 +2701,10 @@
         <v>215770196</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E94">
         <v>5</v>
@@ -2861,7 +2713,7 @@
         <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2869,10 +2721,10 @@
         <v>8085882885</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D95" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -2881,7 +2733,7 @@
         <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2889,10 +2741,10 @@
         <v>8085882885</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D96" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -2901,7 +2753,7 @@
         <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2909,10 +2761,10 @@
         <v>6054700257</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D97" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -2921,7 +2773,7 @@
         <v>8</v>
       </c>
       <c r="G97" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2929,10 +2781,10 @@
         <v>5948573509</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -2941,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="G98" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2949,10 +2801,10 @@
         <v>5885288199</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -2961,7 +2813,7 @@
         <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2969,10 +2821,10 @@
         <v>5885288199</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -2981,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2989,10 +2841,10 @@
         <v>444284162</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3001,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3009,10 +2861,10 @@
         <v>8085882885</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D102" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3021,7 +2873,7 @@
         <v>8</v>
       </c>
       <c r="G102" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3029,10 +2881,10 @@
         <v>191749113</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3041,7 +2893,7 @@
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3049,10 +2901,10 @@
         <v>444284162</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3061,7 +2913,7 @@
         <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3069,10 +2921,10 @@
         <v>444284162</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3081,7 +2933,7 @@
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3089,10 +2941,10 @@
         <v>444284162</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3101,7 +2953,7 @@
         <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3109,10 +2961,10 @@
         <v>444284162</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3121,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3129,10 +2981,10 @@
         <v>191749113</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -3141,7 +2993,7 @@
         <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3149,10 +3001,10 @@
         <v>376169998</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3161,7 +3013,7 @@
         <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3169,10 +3021,10 @@
         <v>376169998</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3181,7 +3033,7 @@
         <v>8</v>
       </c>
       <c r="G110" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3189,10 +3041,10 @@
         <v>376169998</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3201,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="G111" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3209,10 +3061,10 @@
         <v>5885288199</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3221,7 +3073,7 @@
         <v>8</v>
       </c>
       <c r="G112" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3229,13 +3081,13 @@
         <v>472990665</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E113">
         <v>31</v>
@@ -3244,7 +3096,7 @@
         <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3252,10 +3104,10 @@
         <v>634893031</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D114" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E114">
         <v>31</v>
@@ -3264,7 +3116,7 @@
         <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3272,10 +3124,10 @@
         <v>634893031</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D115" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E115">
         <v>31</v>
@@ -3284,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3292,10 +3144,10 @@
         <v>444284162</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D116" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E116">
         <v>31</v>
@@ -3304,7 +3156,7 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3312,10 +3164,10 @@
         <v>444284162</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E117">
         <v>31</v>
@@ -3324,7 +3176,7 @@
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3332,10 +3184,10 @@
         <v>444284162</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E118">
         <v>31</v>
@@ -3344,7 +3196,7 @@
         <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3352,10 +3204,10 @@
         <v>191749113</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E119">
         <v>31</v>
@@ -3364,7 +3216,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3372,10 +3224,10 @@
         <v>1317756217</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E120">
         <v>31</v>
@@ -3384,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3392,10 +3244,10 @@
         <v>191749113</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E121">
         <v>31</v>
@@ -3404,7 +3256,7 @@
         <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3412,10 +3264,10 @@
         <v>444284162</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E122">
         <v>31</v>
@@ -3424,7 +3276,7 @@
         <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3432,10 +3284,10 @@
         <v>191749113</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E123">
         <v>31</v>
@@ -3444,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3452,7 +3304,7 @@
         <v>5694587157</v>
       </c>
       <c r="C124" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E124">
         <v>31</v>
@@ -3461,7 +3313,7 @@
         <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3469,10 +3321,10 @@
         <v>263022618</v>
       </c>
       <c r="C125" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D125" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E125">
         <v>31</v>
@@ -3481,7 +3333,7 @@
         <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3489,10 +3341,10 @@
         <v>263022618</v>
       </c>
       <c r="C126" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E126">
         <v>31</v>
@@ -3501,7 +3353,7 @@
         <v>7</v>
       </c>
       <c r="G126" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3509,10 +3361,10 @@
         <v>263022618</v>
       </c>
       <c r="C127" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E127">
         <v>31</v>
@@ -3521,7 +3373,7 @@
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3529,10 +3381,10 @@
         <v>263022618</v>
       </c>
       <c r="C128" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3541,7 +3393,7 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3549,10 +3401,10 @@
         <v>5948573509</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E129">
         <v>31</v>
@@ -3561,7 +3413,7 @@
         <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3569,10 +3421,10 @@
         <v>215770196</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E130">
         <v>31</v>
@@ -3581,7 +3433,7 @@
         <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3589,10 +3441,10 @@
         <v>444284162</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D131" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E131">
         <v>31</v>
@@ -3601,7 +3453,7 @@
         <v>7</v>
       </c>
       <c r="G131" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3609,10 +3461,10 @@
         <v>444284162</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E132">
         <v>31</v>
@@ -3621,7 +3473,7 @@
         <v>7</v>
       </c>
       <c r="G132" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3629,10 +3481,10 @@
         <v>444284162</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D133" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E133">
         <v>31</v>
@@ -3641,7 +3493,7 @@
         <v>7</v>
       </c>
       <c r="G133" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3649,10 +3501,10 @@
         <v>444284162</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E134">
         <v>31</v>
@@ -3661,7 +3513,7 @@
         <v>7</v>
       </c>
       <c r="G134" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3669,10 +3521,10 @@
         <v>444284162</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D135" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E135">
         <v>31</v>
@@ -3681,7 +3533,7 @@
         <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3689,13 +3541,13 @@
         <v>184404993</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E136">
         <v>30</v>
@@ -3704,7 +3556,7 @@
         <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3712,10 +3564,10 @@
         <v>191749113</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E137">
         <v>30</v>
@@ -3724,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3732,10 +3584,10 @@
         <v>444284162</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D138" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E138">
         <v>30</v>
@@ -3744,7 +3596,7 @@
         <v>7</v>
       </c>
       <c r="G138" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3752,10 +3604,10 @@
         <v>444284162</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E139">
         <v>30</v>
@@ -3764,7 +3616,7 @@
         <v>7</v>
       </c>
       <c r="G139" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3772,10 +3624,10 @@
         <v>444284162</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E140">
         <v>30</v>
@@ -3784,7 +3636,7 @@
         <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3792,10 +3644,10 @@
         <v>5885288199</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E141">
         <v>30</v>
@@ -3804,7 +3656,7 @@
         <v>7</v>
       </c>
       <c r="G141" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3812,10 +3664,10 @@
         <v>5885288199</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E142">
         <v>30</v>
@@ -3824,7 +3676,7 @@
         <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3832,10 +3684,10 @@
         <v>6881805090</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E143">
         <v>30</v>
@@ -3844,7 +3696,7 @@
         <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3852,10 +3704,10 @@
         <v>191749113</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -3864,7 +3716,7 @@
         <v>7</v>
       </c>
       <c r="G144" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3872,10 +3724,10 @@
         <v>191749113</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E145">
         <v>30</v>
@@ -3884,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="G145" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3892,10 +3744,10 @@
         <v>191749113</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E146">
         <v>30</v>
@@ -3904,7 +3756,7 @@
         <v>7</v>
       </c>
       <c r="G146" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3912,10 +3764,10 @@
         <v>231855017</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E147">
         <v>30</v>
@@ -3924,7 +3776,7 @@
         <v>7</v>
       </c>
       <c r="G147" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3932,13 +3784,13 @@
         <v>184404993</v>
       </c>
       <c r="B148" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E148">
         <v>30</v>
@@ -3947,7 +3799,7 @@
         <v>7</v>
       </c>
       <c r="G148" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3955,10 +3807,10 @@
         <v>231855017</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E149">
         <v>30</v>
@@ -3967,7 +3819,7 @@
         <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3975,10 +3827,10 @@
         <v>231855017</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E150">
         <v>30</v>
@@ -3987,7 +3839,7 @@
         <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3995,10 +3847,10 @@
         <v>231855017</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E151">
         <v>30</v>
@@ -4007,7 +3859,7 @@
         <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4015,10 +3867,10 @@
         <v>8085882885</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D152" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E152">
         <v>30</v>
@@ -4027,7 +3879,7 @@
         <v>7</v>
       </c>
       <c r="G152" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4035,10 +3887,10 @@
         <v>1387762095</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E153">
         <v>30</v>
@@ -4047,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4055,10 +3907,10 @@
         <v>1387762095</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -4067,7 +3919,7 @@
         <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4075,10 +3927,10 @@
         <v>444284162</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D155" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E155">
         <v>30</v>
@@ -4087,7 +3939,7 @@
         <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4095,10 +3947,10 @@
         <v>231855017</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E156">
         <v>30</v>
@@ -4107,7 +3959,7 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4115,10 +3967,10 @@
         <v>231855017</v>
       </c>
       <c r="B157" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E157">
         <v>30</v>
@@ -4127,7 +3979,7 @@
         <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4135,10 +3987,10 @@
         <v>5885288199</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E158">
         <v>30</v>
@@ -4147,7 +3999,7 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4155,10 +4007,10 @@
         <v>191749113</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E159">
         <v>29</v>
@@ -4167,7 +4019,7 @@
         <v>7</v>
       </c>
       <c r="G159" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4175,10 +4027,10 @@
         <v>191749113</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E160">
         <v>29</v>
@@ -4187,7 +4039,7 @@
         <v>7</v>
       </c>
       <c r="G160" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4195,7 +4047,7 @@
         <v>5491951442</v>
       </c>
       <c r="C161" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E161">
         <v>29</v>
@@ -4204,7 +4056,7 @@
         <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4212,10 +4064,10 @@
         <v>6881805090</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D162" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E162">
         <v>29</v>
@@ -4224,7 +4076,7 @@
         <v>7</v>
       </c>
       <c r="G162" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4232,10 +4084,10 @@
         <v>6881805090</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D163" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E163">
         <v>29</v>
@@ -4244,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="G163" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4252,10 +4104,10 @@
         <v>444284162</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D164" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E164">
         <v>29</v>
@@ -4264,7 +4116,7 @@
         <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4272,10 +4124,10 @@
         <v>444284162</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D165" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E165">
         <v>29</v>
@@ -4284,7 +4136,7 @@
         <v>7</v>
       </c>
       <c r="G165" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4292,10 +4144,10 @@
         <v>444284162</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D166" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E166">
         <v>29</v>
@@ -4304,7 +4156,7 @@
         <v>7</v>
       </c>
       <c r="G166" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4312,10 +4164,10 @@
         <v>215770196</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E167">
         <v>29</v>
@@ -4324,7 +4176,7 @@
         <v>7</v>
       </c>
       <c r="G167" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4332,10 +4184,10 @@
         <v>215770196</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E168">
         <v>29</v>
@@ -4344,7 +4196,7 @@
         <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4352,10 +4204,10 @@
         <v>191749113</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E169">
         <v>29</v>
@@ -4364,7 +4216,7 @@
         <v>7</v>
       </c>
       <c r="G169" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4372,10 +4224,10 @@
         <v>263022618</v>
       </c>
       <c r="C170" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D170" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E170">
         <v>29</v>
@@ -4384,7 +4236,7 @@
         <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4392,10 +4244,10 @@
         <v>263022618</v>
       </c>
       <c r="C171" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D171" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E171">
         <v>29</v>
@@ -4404,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4412,13 +4264,13 @@
         <v>184404993</v>
       </c>
       <c r="B172" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D172" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E172">
         <v>29</v>
@@ -4427,7 +4279,7 @@
         <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4435,13 +4287,13 @@
         <v>184404993</v>
       </c>
       <c r="B173" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D173" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E173">
         <v>29</v>
@@ -4450,7 +4302,7 @@
         <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4458,13 +4310,13 @@
         <v>184404993</v>
       </c>
       <c r="B174" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D174" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E174">
         <v>29</v>
@@ -4473,7 +4325,7 @@
         <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4481,10 +4333,10 @@
         <v>263022618</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D175" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E175">
         <v>29</v>
@@ -4493,7 +4345,7 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4501,10 +4353,10 @@
         <v>263022618</v>
       </c>
       <c r="C176" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D176" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E176">
         <v>29</v>
@@ -4513,7 +4365,7 @@
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4521,13 +4373,13 @@
         <v>184404993</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D177" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E177">
         <v>29</v>
@@ -4536,7 +4388,7 @@
         <v>7</v>
       </c>
       <c r="G177" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4544,10 +4396,10 @@
         <v>444284162</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D178" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E178">
         <v>29</v>
@@ -4556,7 +4408,7 @@
         <v>7</v>
       </c>
       <c r="G178" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4564,10 +4416,10 @@
         <v>191749113</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E179">
         <v>29</v>
@@ -4576,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4584,13 +4436,13 @@
         <v>197534512</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E180">
         <v>29</v>
@@ -4599,7 +4451,7 @@
         <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4607,10 +4459,10 @@
         <v>5803543484</v>
       </c>
       <c r="B181" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C181" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E181">
         <v>29</v>
@@ -4619,7 +4471,7 @@
         <v>7</v>
       </c>
       <c r="G181" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4627,10 +4479,10 @@
         <v>444284162</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D182" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E182">
         <v>29</v>
@@ -4639,7 +4491,7 @@
         <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4647,10 +4499,10 @@
         <v>215770196</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D183" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E183">
         <v>29</v>
@@ -4659,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4667,10 +4519,10 @@
         <v>444284162</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E184">
         <v>29</v>
@@ -4679,7 +4531,7 @@
         <v>7</v>
       </c>
       <c r="G184" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4687,10 +4539,10 @@
         <v>444284162</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E185">
         <v>29</v>
@@ -4699,7 +4551,7 @@
         <v>7</v>
       </c>
       <c r="G185" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4707,10 +4559,10 @@
         <v>444284162</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E186">
         <v>29</v>
@@ -4719,7 +4571,7 @@
         <v>7</v>
       </c>
       <c r="G186" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4727,10 +4579,10 @@
         <v>5803543484</v>
       </c>
       <c r="B187" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C187" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E187">
         <v>29</v>
@@ -4739,7 +4591,7 @@
         <v>7</v>
       </c>
       <c r="G187" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4747,10 +4599,10 @@
         <v>444284162</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E188">
         <v>29</v>
@@ -4759,7 +4611,7 @@
         <v>7</v>
       </c>
       <c r="G188" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4767,10 +4619,10 @@
         <v>5885288199</v>
       </c>
       <c r="C189" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E189">
         <v>29</v>
@@ -4779,7 +4631,7 @@
         <v>7</v>
       </c>
       <c r="G189" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4787,10 +4639,10 @@
         <v>444284162</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D190" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E190">
         <v>29</v>
@@ -4799,7 +4651,7 @@
         <v>7</v>
       </c>
       <c r="G190" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4807,10 +4659,10 @@
         <v>444284162</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D191" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E191">
         <v>29</v>
@@ -4819,7 +4671,7 @@
         <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4827,10 +4679,10 @@
         <v>6881805090</v>
       </c>
       <c r="C192" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E192">
         <v>29</v>
@@ -4839,7 +4691,7 @@
         <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4847,10 +4699,10 @@
         <v>5803543484</v>
       </c>
       <c r="B193" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E193">
         <v>29</v>
@@ -4859,7 +4711,7 @@
         <v>7</v>
       </c>
       <c r="G193" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4867,10 +4719,10 @@
         <v>5885288199</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E194">
         <v>28</v>
@@ -4879,7 +4731,7 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4887,10 +4739,10 @@
         <v>5885288199</v>
       </c>
       <c r="C195" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D195" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E195">
         <v>28</v>
@@ -4899,7 +4751,7 @@
         <v>7</v>
       </c>
       <c r="G195" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4907,10 +4759,10 @@
         <v>444284162</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D196" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E196">
         <v>28</v>
@@ -4919,7 +4771,7 @@
         <v>7</v>
       </c>
       <c r="G196" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4927,10 +4779,10 @@
         <v>263022618</v>
       </c>
       <c r="C197" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D197" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E197">
         <v>28</v>
@@ -4939,7 +4791,7 @@
         <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4947,10 +4799,10 @@
         <v>263022618</v>
       </c>
       <c r="C198" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D198" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E198">
         <v>28</v>
@@ -4959,7 +4811,7 @@
         <v>7</v>
       </c>
       <c r="G198" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4967,10 +4819,10 @@
         <v>444284162</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D199" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E199">
         <v>28</v>
@@ -4979,7 +4831,7 @@
         <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4987,10 +4839,10 @@
         <v>6881805090</v>
       </c>
       <c r="C200" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D200" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E200">
         <v>28</v>
@@ -4999,7 +4851,7 @@
         <v>7</v>
       </c>
       <c r="G200" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5007,10 +4859,10 @@
         <v>444284162</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E201">
         <v>28</v>
@@ -5019,7 +4871,7 @@
         <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5027,13 +4879,13 @@
         <v>197534512</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D202" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E202">
         <v>28</v>
@@ -5042,7 +4894,7 @@
         <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5050,10 +4902,10 @@
         <v>6881805090</v>
       </c>
       <c r="C203" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D203" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E203">
         <v>28</v>
@@ -5062,7 +4914,7 @@
         <v>7</v>
       </c>
       <c r="G203" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5070,10 +4922,10 @@
         <v>5803543484</v>
       </c>
       <c r="B204" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C204" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E204">
         <v>28</v>
@@ -5082,7 +4934,7 @@
         <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5090,10 +4942,10 @@
         <v>5803543484</v>
       </c>
       <c r="B205" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C205" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E205">
         <v>28</v>
@@ -5102,7 +4954,7 @@
         <v>7</v>
       </c>
       <c r="G205" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5110,10 +4962,10 @@
         <v>5803543484</v>
       </c>
       <c r="B206" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E206">
         <v>28</v>
@@ -5122,7 +4974,7 @@
         <v>7</v>
       </c>
       <c r="G206" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5130,7 +4982,7 @@
         <v>600960219</v>
       </c>
       <c r="C207" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E207">
         <v>28</v>
@@ -5139,7 +4991,7 @@
         <v>7</v>
       </c>
       <c r="G207" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5147,10 +4999,10 @@
         <v>444284162</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E208">
         <v>28</v>
@@ -5159,7 +5011,7 @@
         <v>7</v>
       </c>
       <c r="G208" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5167,10 +5019,10 @@
         <v>5803543484</v>
       </c>
       <c r="B209" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C209" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E209">
         <v>28</v>
@@ -5179,7 +5031,7 @@
         <v>7</v>
       </c>
       <c r="G209" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5187,10 +5039,10 @@
         <v>5803543484</v>
       </c>
       <c r="B210" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E210">
         <v>28</v>
@@ -5199,7 +5051,7 @@
         <v>7</v>
       </c>
       <c r="G210" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5207,10 +5059,10 @@
         <v>444284162</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D211" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E211">
         <v>28</v>
@@ -5219,7 +5071,7 @@
         <v>7</v>
       </c>
       <c r="G211" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5227,10 +5079,10 @@
         <v>444284162</v>
       </c>
       <c r="C212" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E212">
         <v>28</v>
@@ -5239,7 +5091,7 @@
         <v>7</v>
       </c>
       <c r="G212" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5247,10 +5099,10 @@
         <v>444284162</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D213" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E213">
         <v>28</v>
@@ -5259,7 +5111,7 @@
         <v>7</v>
       </c>
       <c r="G213" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5267,10 +5119,10 @@
         <v>5803543484</v>
       </c>
       <c r="B214" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C214" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E214">
         <v>28</v>
@@ -5279,7 +5131,7 @@
         <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5287,10 +5139,10 @@
         <v>6881805090</v>
       </c>
       <c r="C215" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D215" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E215">
         <v>28</v>
@@ -5299,7 +5151,7 @@
         <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5307,10 +5159,10 @@
         <v>6881805090</v>
       </c>
       <c r="C216" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D216" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E216">
         <v>28</v>
@@ -5319,7 +5171,7 @@
         <v>7</v>
       </c>
       <c r="G216" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5327,10 +5179,10 @@
         <v>5803543484</v>
       </c>
       <c r="B217" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E217">
         <v>28</v>
@@ -5339,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="G217" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5347,10 +5199,10 @@
         <v>444284162</v>
       </c>
       <c r="C218" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D218" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E218">
         <v>28</v>
@@ -5359,7 +5211,7 @@
         <v>7</v>
       </c>
       <c r="G218" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5367,10 +5219,10 @@
         <v>5803543484</v>
       </c>
       <c r="B219" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E219">
         <v>28</v>
@@ -5379,7 +5231,7 @@
         <v>7</v>
       </c>
       <c r="G219" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5387,10 +5239,10 @@
         <v>1387762095</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E220">
         <v>28</v>
@@ -5399,7 +5251,7 @@
         <v>7</v>
       </c>
       <c r="G220" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5407,10 +5259,10 @@
         <v>444284162</v>
       </c>
       <c r="C221" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D221" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E221">
         <v>28</v>
@@ -5419,7 +5271,7 @@
         <v>7</v>
       </c>
       <c r="G221" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5427,10 +5279,10 @@
         <v>444284162</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E222">
         <v>28</v>
@@ -5439,7 +5291,7 @@
         <v>7</v>
       </c>
       <c r="G222" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5447,10 +5299,10 @@
         <v>444284162</v>
       </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D223" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E223">
         <v>28</v>
@@ -5459,7 +5311,7 @@
         <v>7</v>
       </c>
       <c r="G223" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5467,10 +5319,10 @@
         <v>215770196</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D224" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E224">
         <v>28</v>
@@ -5479,18 +5331,18 @@
         <v>7</v>
       </c>
       <c r="G224" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>5961964824</v>
       </c>
       <c r="C225" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D225" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E225">
         <v>28</v>
@@ -5499,18 +5351,18 @@
         <v>7</v>
       </c>
       <c r="G225" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>5885288199</v>
       </c>
       <c r="C226" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E226">
         <v>28</v>
@@ -5519,18 +5371,18 @@
         <v>7</v>
       </c>
       <c r="G226" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>5885288199</v>
       </c>
       <c r="C227" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D227" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E227">
         <v>28</v>
@@ -5539,18 +5391,18 @@
         <v>7</v>
       </c>
       <c r="G227" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>5885288199</v>
       </c>
       <c r="C228" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E228">
         <v>28</v>
@@ -5559,18 +5411,18 @@
         <v>7</v>
       </c>
       <c r="G228" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>5961964824</v>
       </c>
       <c r="C229" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D229" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E229">
         <v>26</v>
@@ -5579,18 +5431,18 @@
         <v>7</v>
       </c>
       <c r="G229" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>1317756217</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E230">
         <v>25</v>
@@ -5599,18 +5451,18 @@
         <v>7</v>
       </c>
       <c r="G230" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>1317756217</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E231">
         <v>25</v>
@@ -5619,15 +5471,15 @@
         <v>7</v>
       </c>
       <c r="G231" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>198540983</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E232">
         <v>25</v>
@@ -5636,21 +5488,21 @@
         <v>7</v>
       </c>
       <c r="G232" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>197534512</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D233" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E233">
         <v>25</v>
@@ -5659,18 +5511,18 @@
         <v>7</v>
       </c>
       <c r="G233" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>8085882885</v>
       </c>
       <c r="C234" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D234" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E234">
         <v>25</v>
@@ -5679,18 +5531,18 @@
         <v>7</v>
       </c>
       <c r="G234" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>376169998</v>
       </c>
       <c r="C235" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D235" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E235">
         <v>25</v>
@@ -5699,976 +5551,7 @@
         <v>7</v>
       </c>
       <c r="G235" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10">
-      <c r="A236">
-        <v>999024757</v>
-      </c>
-      <c r="B236" t="s">
-        <v>21</v>
-      </c>
-      <c r="C236" t="s">
-        <v>50</v>
-      </c>
-      <c r="D236" t="s">
-        <v>67</v>
-      </c>
-      <c r="E236">
-        <v>13</v>
-      </c>
-      <c r="F236">
-        <v>8</v>
-      </c>
-      <c r="G236" t="s">
-        <v>160</v>
-      </c>
-      <c r="H236">
-        <v>2025</v>
-      </c>
-      <c r="I236" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J236" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10">
-      <c r="A237">
-        <v>263022618</v>
-      </c>
-      <c r="C237" t="s">
-        <v>43</v>
-      </c>
-      <c r="D237" t="s">
-        <v>64</v>
-      </c>
-      <c r="E237">
-        <v>13</v>
-      </c>
-      <c r="F237">
-        <v>8</v>
-      </c>
-      <c r="G237" t="s">
-        <v>161</v>
-      </c>
-      <c r="H237">
-        <v>2025</v>
-      </c>
-      <c r="I237" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J237" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10">
-      <c r="A238">
-        <v>6881805090</v>
-      </c>
-      <c r="C238" t="s">
-        <v>32</v>
-      </c>
-      <c r="D238" t="s">
-        <v>58</v>
-      </c>
-      <c r="E238">
-        <v>13</v>
-      </c>
-      <c r="F238">
-        <v>8</v>
-      </c>
-      <c r="G238" t="s">
-        <v>162</v>
-      </c>
-      <c r="H238">
-        <v>2025</v>
-      </c>
-      <c r="I238" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J238" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10">
-      <c r="A239">
-        <v>600960219</v>
-      </c>
-      <c r="C239" t="s">
-        <v>48</v>
-      </c>
-      <c r="E239">
-        <v>13</v>
-      </c>
-      <c r="F239">
-        <v>8</v>
-      </c>
-      <c r="G239" t="s">
-        <v>163</v>
-      </c>
-      <c r="H239">
-        <v>2025</v>
-      </c>
-      <c r="I239" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J239" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10">
-      <c r="A240">
-        <v>6881805090</v>
-      </c>
-      <c r="C240" t="s">
-        <v>32</v>
-      </c>
-      <c r="D240" t="s">
-        <v>58</v>
-      </c>
-      <c r="E240">
-        <v>13</v>
-      </c>
-      <c r="F240">
-        <v>8</v>
-      </c>
-      <c r="G240" t="s">
-        <v>162</v>
-      </c>
-      <c r="H240">
-        <v>2025</v>
-      </c>
-      <c r="I240" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J240" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10">
-      <c r="A241">
-        <v>444284162</v>
-      </c>
-      <c r="C241" t="s">
-        <v>28</v>
-      </c>
-      <c r="D241" t="s">
-        <v>55</v>
-      </c>
-      <c r="E241">
-        <v>13</v>
-      </c>
-      <c r="F241">
-        <v>8</v>
-      </c>
-      <c r="G241" t="s">
-        <v>164</v>
-      </c>
-      <c r="H241">
-        <v>2025</v>
-      </c>
-      <c r="I241" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J241" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10">
-      <c r="A242">
-        <v>197534512</v>
-      </c>
-      <c r="B242" t="s">
-        <v>12</v>
-      </c>
-      <c r="C242" t="s">
-        <v>29</v>
-      </c>
-      <c r="D242" t="s">
-        <v>56</v>
-      </c>
-      <c r="E242">
-        <v>13</v>
-      </c>
-      <c r="F242">
-        <v>8</v>
-      </c>
-      <c r="G242" t="s">
-        <v>165</v>
-      </c>
-      <c r="H242">
-        <v>2025</v>
-      </c>
-      <c r="I242" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J242" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10">
-      <c r="A243">
-        <v>472990665</v>
-      </c>
-      <c r="B243" t="s">
-        <v>14</v>
-      </c>
-      <c r="C243" t="s">
-        <v>36</v>
-      </c>
-      <c r="D243" t="s">
-        <v>61</v>
-      </c>
-      <c r="E243">
-        <v>13</v>
-      </c>
-      <c r="F243">
-        <v>8</v>
-      </c>
-      <c r="G243" t="s">
-        <v>166</v>
-      </c>
-      <c r="H243">
-        <v>2025</v>
-      </c>
-      <c r="I243" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J243" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10">
-      <c r="A244">
-        <v>1855522970</v>
-      </c>
-      <c r="B244" t="s">
-        <v>10</v>
-      </c>
-      <c r="C244" t="s">
-        <v>24</v>
-      </c>
-      <c r="E244">
-        <v>13</v>
-      </c>
-      <c r="F244">
-        <v>8</v>
-      </c>
-      <c r="G244" t="s">
-        <v>167</v>
-      </c>
-      <c r="H244">
-        <v>2025</v>
-      </c>
-      <c r="I244" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J244" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10">
-      <c r="A245">
-        <v>1855522970</v>
-      </c>
-      <c r="B245" t="s">
-        <v>10</v>
-      </c>
-      <c r="C245" t="s">
-        <v>24</v>
-      </c>
-      <c r="E245">
-        <v>13</v>
-      </c>
-      <c r="F245">
-        <v>8</v>
-      </c>
-      <c r="G245" t="s">
-        <v>167</v>
-      </c>
-      <c r="H245">
-        <v>2025</v>
-      </c>
-      <c r="I245" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J245" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10">
-      <c r="A246">
-        <v>1855522970</v>
-      </c>
-      <c r="B246" t="s">
-        <v>10</v>
-      </c>
-      <c r="C246" t="s">
-        <v>24</v>
-      </c>
-      <c r="E246">
-        <v>13</v>
-      </c>
-      <c r="F246">
-        <v>8</v>
-      </c>
-      <c r="G246" t="s">
-        <v>167</v>
-      </c>
-      <c r="H246">
-        <v>2025</v>
-      </c>
-      <c r="I246" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J246" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10">
-      <c r="A247">
-        <v>1855522970</v>
-      </c>
-      <c r="B247" t="s">
-        <v>10</v>
-      </c>
-      <c r="C247" t="s">
-        <v>24</v>
-      </c>
-      <c r="E247">
-        <v>13</v>
-      </c>
-      <c r="F247">
-        <v>8</v>
-      </c>
-      <c r="G247" t="s">
-        <v>167</v>
-      </c>
-      <c r="H247">
-        <v>2025</v>
-      </c>
-      <c r="I247" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J247" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
-      <c r="A248">
-        <v>5885288199</v>
-      </c>
-      <c r="C248" t="s">
-        <v>30</v>
-      </c>
-      <c r="D248" t="s">
-        <v>57</v>
-      </c>
-      <c r="E248">
-        <v>13</v>
-      </c>
-      <c r="F248">
-        <v>8</v>
-      </c>
-      <c r="G248" t="s">
-        <v>168</v>
-      </c>
-      <c r="H248">
-        <v>2025</v>
-      </c>
-      <c r="I248" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J248" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10">
-      <c r="A249">
-        <v>5742326364</v>
-      </c>
-      <c r="B249" t="s">
-        <v>22</v>
-      </c>
-      <c r="C249" t="s">
-        <v>51</v>
-      </c>
-      <c r="D249" t="s">
-        <v>68</v>
-      </c>
-      <c r="E249">
-        <v>13</v>
-      </c>
-      <c r="F249">
-        <v>8</v>
-      </c>
-      <c r="G249" t="s">
-        <v>169</v>
-      </c>
-      <c r="H249">
-        <v>2025</v>
-      </c>
-      <c r="I249" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J249" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10">
-      <c r="A250">
-        <v>472990665</v>
-      </c>
-      <c r="B250" t="s">
-        <v>14</v>
-      </c>
-      <c r="C250" t="s">
-        <v>36</v>
-      </c>
-      <c r="D250" t="s">
-        <v>61</v>
-      </c>
-      <c r="E250">
-        <v>13</v>
-      </c>
-      <c r="F250">
-        <v>8</v>
-      </c>
-      <c r="G250" t="s">
-        <v>166</v>
-      </c>
-      <c r="H250">
-        <v>2025</v>
-      </c>
-      <c r="I250" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J250" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10">
-      <c r="A251">
-        <v>444284162</v>
-      </c>
-      <c r="C251" t="s">
-        <v>28</v>
-      </c>
-      <c r="D251" t="s">
-        <v>55</v>
-      </c>
-      <c r="E251">
-        <v>13</v>
-      </c>
-      <c r="F251">
-        <v>8</v>
-      </c>
-      <c r="G251" t="s">
-        <v>164</v>
-      </c>
-      <c r="H251">
-        <v>2025</v>
-      </c>
-      <c r="I251" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J251" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10">
-      <c r="A252">
-        <v>1855522970</v>
-      </c>
-      <c r="B252" t="s">
-        <v>10</v>
-      </c>
-      <c r="C252" t="s">
-        <v>24</v>
-      </c>
-      <c r="E252">
-        <v>12</v>
-      </c>
-      <c r="F252">
-        <v>8</v>
-      </c>
-      <c r="G252" t="s">
-        <v>170</v>
-      </c>
-      <c r="H252">
-        <v>2025</v>
-      </c>
-      <c r="I252" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J252" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10">
-      <c r="A253">
-        <v>600960219</v>
-      </c>
-      <c r="C253" t="s">
-        <v>48</v>
-      </c>
-      <c r="E253">
-        <v>12</v>
-      </c>
-      <c r="F253">
-        <v>8</v>
-      </c>
-      <c r="G253" t="s">
-        <v>171</v>
-      </c>
-      <c r="H253">
-        <v>2025</v>
-      </c>
-      <c r="I253" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J253" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
-      <c r="A254">
-        <v>600960219</v>
-      </c>
-      <c r="C254" t="s">
-        <v>48</v>
-      </c>
-      <c r="E254">
-        <v>12</v>
-      </c>
-      <c r="F254">
-        <v>8</v>
-      </c>
-      <c r="G254" t="s">
-        <v>171</v>
-      </c>
-      <c r="H254">
-        <v>2025</v>
-      </c>
-      <c r="I254" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J254" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10">
-      <c r="A255">
-        <v>999024757</v>
-      </c>
-      <c r="B255" t="s">
-        <v>21</v>
-      </c>
-      <c r="C255" t="s">
-        <v>50</v>
-      </c>
-      <c r="D255" t="s">
-        <v>67</v>
-      </c>
-      <c r="E255">
-        <v>12</v>
-      </c>
-      <c r="F255">
-        <v>8</v>
-      </c>
-      <c r="G255" t="s">
-        <v>172</v>
-      </c>
-      <c r="H255">
-        <v>2025</v>
-      </c>
-      <c r="I255" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J255" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
-      <c r="A256">
-        <v>999024757</v>
-      </c>
-      <c r="B256" t="s">
-        <v>21</v>
-      </c>
-      <c r="C256" t="s">
-        <v>50</v>
-      </c>
-      <c r="D256" t="s">
-        <v>67</v>
-      </c>
-      <c r="E256">
-        <v>12</v>
-      </c>
-      <c r="F256">
-        <v>8</v>
-      </c>
-      <c r="G256" t="s">
-        <v>172</v>
-      </c>
-      <c r="H256">
-        <v>2025</v>
-      </c>
-      <c r="I256" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J256" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
-      <c r="A257">
-        <v>1855522970</v>
-      </c>
-      <c r="B257" t="s">
-        <v>10</v>
-      </c>
-      <c r="C257" t="s">
-        <v>24</v>
-      </c>
-      <c r="E257">
-        <v>12</v>
-      </c>
-      <c r="F257">
-        <v>8</v>
-      </c>
-      <c r="G257" t="s">
-        <v>170</v>
-      </c>
-      <c r="H257">
-        <v>2025</v>
-      </c>
-      <c r="I257" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J257" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
-      <c r="A258">
-        <v>1855522970</v>
-      </c>
-      <c r="B258" t="s">
-        <v>10</v>
-      </c>
-      <c r="C258" t="s">
-        <v>24</v>
-      </c>
-      <c r="E258">
-        <v>12</v>
-      </c>
-      <c r="F258">
-        <v>8</v>
-      </c>
-      <c r="G258" t="s">
-        <v>170</v>
-      </c>
-      <c r="H258">
-        <v>2025</v>
-      </c>
-      <c r="I258" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J258" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10">
-      <c r="A259">
-        <v>444284162</v>
-      </c>
-      <c r="C259" t="s">
-        <v>28</v>
-      </c>
-      <c r="D259" t="s">
-        <v>55</v>
-      </c>
-      <c r="E259">
-        <v>12</v>
-      </c>
-      <c r="F259">
-        <v>8</v>
-      </c>
-      <c r="G259" t="s">
-        <v>173</v>
-      </c>
-      <c r="H259">
-        <v>2025</v>
-      </c>
-      <c r="I259" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J259" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
-      <c r="A260">
-        <v>444284162</v>
-      </c>
-      <c r="C260" t="s">
-        <v>28</v>
-      </c>
-      <c r="D260" t="s">
-        <v>55</v>
-      </c>
-      <c r="E260">
-        <v>12</v>
-      </c>
-      <c r="F260">
-        <v>8</v>
-      </c>
-      <c r="G260" t="s">
-        <v>173</v>
-      </c>
-      <c r="H260">
-        <v>2025</v>
-      </c>
-      <c r="I260" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J260" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
-      <c r="A261">
-        <v>444284162</v>
-      </c>
-      <c r="C261" t="s">
-        <v>28</v>
-      </c>
-      <c r="D261" t="s">
-        <v>55</v>
-      </c>
-      <c r="E261">
-        <v>12</v>
-      </c>
-      <c r="F261">
-        <v>8</v>
-      </c>
-      <c r="G261" t="s">
-        <v>173</v>
-      </c>
-      <c r="H261">
-        <v>2025</v>
-      </c>
-      <c r="I261" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J261" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
-      <c r="A262">
-        <v>1272726249</v>
-      </c>
-      <c r="B262" t="s">
-        <v>23</v>
-      </c>
-      <c r="C262" t="s">
-        <v>52</v>
-      </c>
-      <c r="D262" t="s">
-        <v>68</v>
-      </c>
-      <c r="E262">
-        <v>12</v>
-      </c>
-      <c r="F262">
-        <v>8</v>
-      </c>
-      <c r="G262" t="s">
-        <v>174</v>
-      </c>
-      <c r="H262">
-        <v>2025</v>
-      </c>
-      <c r="I262" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J262" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
-      <c r="A263">
-        <v>1855522970</v>
-      </c>
-      <c r="B263" t="s">
-        <v>10</v>
-      </c>
-      <c r="C263" t="s">
-        <v>24</v>
-      </c>
-      <c r="E263">
-        <v>12</v>
-      </c>
-      <c r="F263">
-        <v>8</v>
-      </c>
-      <c r="G263" t="s">
-        <v>170</v>
-      </c>
-      <c r="H263">
-        <v>2025</v>
-      </c>
-      <c r="I263" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J263" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
-      <c r="A264">
-        <v>444284162</v>
-      </c>
-      <c r="C264" t="s">
-        <v>28</v>
-      </c>
-      <c r="D264" t="s">
-        <v>55</v>
-      </c>
-      <c r="E264">
-        <v>12</v>
-      </c>
-      <c r="F264">
-        <v>8</v>
-      </c>
-      <c r="G264" t="s">
-        <v>173</v>
-      </c>
-      <c r="H264">
-        <v>2025</v>
-      </c>
-      <c r="I264" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J264" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10">
-      <c r="A265">
-        <v>215770196</v>
-      </c>
-      <c r="C265" t="s">
-        <v>27</v>
-      </c>
-      <c r="D265" t="s">
-        <v>54</v>
-      </c>
-      <c r="E265">
-        <v>12</v>
-      </c>
-      <c r="F265">
-        <v>8</v>
-      </c>
-      <c r="G265" t="s">
-        <v>175</v>
-      </c>
-      <c r="H265">
-        <v>2025</v>
-      </c>
-      <c r="I265" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J265" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
-      <c r="A266">
-        <v>600960219</v>
-      </c>
-      <c r="C266" t="s">
-        <v>48</v>
-      </c>
-      <c r="E266">
-        <v>12</v>
-      </c>
-      <c r="F266">
-        <v>8</v>
-      </c>
-      <c r="G266" t="s">
-        <v>171</v>
-      </c>
-      <c r="H266">
-        <v>2025</v>
-      </c>
-      <c r="I266" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J266" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10">
-      <c r="A267">
-        <v>215770196</v>
-      </c>
-      <c r="C267" t="s">
-        <v>27</v>
-      </c>
-      <c r="D267" t="s">
-        <v>54</v>
-      </c>
-      <c r="E267">
-        <v>12</v>
-      </c>
-      <c r="F267">
-        <v>8</v>
-      </c>
-      <c r="G267" t="s">
-        <v>175</v>
-      </c>
-      <c r="H267">
-        <v>2025</v>
-      </c>
-      <c r="I267" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J267" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10">
-      <c r="A268">
-        <v>5885288199</v>
-      </c>
-      <c r="C268" t="s">
-        <v>30</v>
-      </c>
-      <c r="D268" t="s">
-        <v>57</v>
-      </c>
-      <c r="E268">
-        <v>12</v>
-      </c>
-      <c r="F268">
-        <v>8</v>
-      </c>
-      <c r="G268" t="s">
-        <v>176</v>
-      </c>
-      <c r="H268">
-        <v>2025</v>
-      </c>
-      <c r="I268" s="2">
-        <v>45882.61575673611</v>
-      </c>
-      <c r="J268" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/result_geral.xlsx
+++ b/result_geral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="196">
   <si>
     <t>user_id_telegram</t>
   </si>
@@ -37,6 +37,15 @@
     <t>local_arquivo</t>
   </si>
   <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>data_execucao_robo</t>
+  </si>
+  <si>
+    <t>chave</t>
+  </si>
+  <si>
     <t>David_LuizPGO</t>
   </si>
   <si>
@@ -70,6 +79,15 @@
     <t>MaikeFranco</t>
   </si>
   <si>
+    <t>lucas_nrocha</t>
+  </si>
+  <si>
+    <t>AntonioTST2023</t>
+  </si>
+  <si>
+    <t>Kelvin_ASSantos</t>
+  </si>
+  <si>
     <t>David Luiz</t>
   </si>
   <si>
@@ -148,6 +166,15 @@
     <t>ALEX</t>
   </si>
   <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Antonio Marcos</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
+  </si>
+  <si>
     <t>Franco</t>
   </si>
   <si>
@@ -190,6 +217,12 @@
     <t>Ribeiro</t>
   </si>
   <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
     <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1855522970_David_LuizPGO_David Luiz_None_2025_08_11</t>
   </si>
   <si>
@@ -461,12 +494,123 @@
   </si>
   <si>
     <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/376169998_None_Michel_Franco_2025_07_25</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/376169998_None_Michel_Franco_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/999024757_lucas_nrocha_Lucas_Rocha_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/263022618_None_Felipe_Polonio_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/6881805090_None_Frederico_Apoio BKB 43_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/600960219_None_Rodrigo ico_None_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/444284162_None_Rafael_Verruch_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/197534512_Cristiano_Gomez_Cristiano_Gomez_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/472990665_JaqueOliveiraQSMS_Jaque Oliveira_QSMS_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1855522970_David_LuizPGO_David Luiz_None_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/5885288199_None_Odair_Rocha Da Silva_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/5742326364_AntonioTST2023_Antonio Marcos_Santos_2025_08_13</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1855522970_David_LuizPGO_David Luiz_None_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/600960219_None_Rodrigo ico_None_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/999024757_lucas_nrocha_Lucas_Rocha_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/444284162_None_Rafael_Verruch_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/1272726249_Kelvin_ASSantos_Kelvin_Santos_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/215770196_None_Lincon_Trentin_2025_08_12</t>
+  </si>
+  <si>
+    <t>C:\Users\55419\Documents\icomon\spot\thiago\Handover - TH\Handover - TH\spot\projeto_seg_trab\imgs\img_telegram_dia_11\/5885288199_None_Odair_Rocha Da Silva_2025_08_12</t>
+  </si>
+  <si>
+    <t>376169998_13_8_2025</t>
+  </si>
+  <si>
+    <t>999024757_13_8_2025</t>
+  </si>
+  <si>
+    <t>263022618_13_8_2025</t>
+  </si>
+  <si>
+    <t>6881805090_13_8_2025</t>
+  </si>
+  <si>
+    <t>600960219_13_8_2025</t>
+  </si>
+  <si>
+    <t>444284162_13_8_2025</t>
+  </si>
+  <si>
+    <t>197534512_13_8_2025</t>
+  </si>
+  <si>
+    <t>472990665_13_8_2025</t>
+  </si>
+  <si>
+    <t>1855522970_13_8_2025</t>
+  </si>
+  <si>
+    <t>5885288199_13_8_2025</t>
+  </si>
+  <si>
+    <t>5742326364_13_8_2025</t>
+  </si>
+  <si>
+    <t>1855522970_12_8_2025</t>
+  </si>
+  <si>
+    <t>600960219_12_8_2025</t>
+  </si>
+  <si>
+    <t>999024757_12_8_2025</t>
+  </si>
+  <si>
+    <t>444284162_12_8_2025</t>
+  </si>
+  <si>
+    <t>1272726249_12_8_2025</t>
+  </si>
+  <si>
+    <t>215770196_12_8_2025</t>
+  </si>
+  <si>
+    <t>5885288199_12_8_2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -519,11 +663,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,13 +963,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:J272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,16 +991,25 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1855522970</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -864,18 +1018,18 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1855522970</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -884,18 +1038,18 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1387762095</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -904,18 +1058,18 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1855522970</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -924,18 +1078,18 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1855522970</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -944,18 +1098,18 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>376169998</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -964,18 +1118,18 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>376169998</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>11</v>
@@ -984,18 +1138,18 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>376169998</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -1004,18 +1158,18 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>376169998</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>11</v>
@@ -1024,18 +1178,18 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>215770196</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>11</v>
@@ -1044,18 +1198,18 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>215770196</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1064,18 +1218,18 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>376169998</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -1084,18 +1238,18 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>1387762095</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -1104,18 +1258,18 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>1855522970</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>11</v>
@@ -1124,18 +1278,18 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>1855522970</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>11</v>
@@ -1144,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1152,10 +1306,10 @@
         <v>444284162</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -1164,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1172,13 +1326,13 @@
         <v>197534512</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -1187,7 +1341,7 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1195,10 +1349,10 @@
         <v>1387762095</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -1207,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1215,10 +1369,10 @@
         <v>5885288199</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>11</v>
@@ -1227,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1235,7 +1389,7 @@
         <v>198540983</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -1244,7 +1398,7 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1252,7 +1406,7 @@
         <v>198540983</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>11</v>
@@ -1261,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1269,10 +1423,10 @@
         <v>6881805090</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>11</v>
@@ -1281,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1289,10 +1443,10 @@
         <v>1454238617</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>11</v>
@@ -1301,7 +1455,7 @@
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1309,10 +1463,10 @@
         <v>444284162</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>11</v>
@@ -1321,7 +1475,7 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1329,10 +1483,10 @@
         <v>444284162</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>11</v>
@@ -1341,7 +1495,7 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1349,10 +1503,10 @@
         <v>444284162</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -1361,7 +1515,7 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1369,10 +1523,10 @@
         <v>8085882885</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -1381,7 +1535,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1389,10 +1543,10 @@
         <v>1855522970</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -1401,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1409,14 +1563,14 @@
         <v>278842749</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
       <c r="E30">
         <v>8</v>
       </c>
@@ -1424,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1432,10 +1586,10 @@
         <v>8085882885</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -1444,7 +1598,7 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1452,13 +1606,13 @@
         <v>472990665</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -1467,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1475,10 +1629,10 @@
         <v>444284162</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -1487,7 +1641,7 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1495,10 +1649,10 @@
         <v>215770196</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -1507,7 +1661,7 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1515,10 +1669,10 @@
         <v>215770196</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <v>8</v>
@@ -1527,7 +1681,7 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1535,10 +1689,10 @@
         <v>376169998</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -1547,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1555,10 +1709,10 @@
         <v>376169998</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -1567,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1575,10 +1729,10 @@
         <v>376169998</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -1587,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1595,10 +1749,10 @@
         <v>376169998</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -1607,7 +1761,7 @@
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1615,10 +1769,10 @@
         <v>6054700257</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E40">
         <v>7</v>
@@ -1627,7 +1781,7 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1635,10 +1789,10 @@
         <v>634893031</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -1647,7 +1801,7 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1655,10 +1809,10 @@
         <v>1855522970</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>7</v>
@@ -1667,7 +1821,7 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1675,10 +1829,10 @@
         <v>1855522970</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -1687,7 +1841,7 @@
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1695,10 +1849,10 @@
         <v>444284162</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E44">
         <v>7</v>
@@ -1707,7 +1861,7 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1715,10 +1869,10 @@
         <v>191749113</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E45">
         <v>7</v>
@@ -1727,7 +1881,7 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1735,10 +1889,10 @@
         <v>444284162</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E46">
         <v>7</v>
@@ -1747,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1755,10 +1909,10 @@
         <v>1387762095</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>7</v>
@@ -1767,7 +1921,7 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1775,10 +1929,10 @@
         <v>6054700257</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E48">
         <v>7</v>
@@ -1787,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1795,10 +1949,10 @@
         <v>1387762095</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>7</v>
@@ -1807,7 +1961,7 @@
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1815,10 +1969,10 @@
         <v>444284162</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -1827,7 +1981,7 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1835,10 +1989,10 @@
         <v>444284162</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E51">
         <v>7</v>
@@ -1847,7 +2001,7 @@
         <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1855,10 +2009,10 @@
         <v>1387762095</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>7</v>
@@ -1867,7 +2021,7 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1875,10 +2029,10 @@
         <v>444284162</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -1887,7 +2041,7 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1895,10 +2049,10 @@
         <v>8085882885</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>7</v>
@@ -1907,7 +2061,7 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1915,10 +2069,10 @@
         <v>215770196</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -1927,7 +2081,7 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1935,10 +2089,10 @@
         <v>444284162</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -1947,7 +2101,7 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1955,10 +2109,10 @@
         <v>444284162</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -1967,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1975,10 +2129,10 @@
         <v>444284162</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E58">
         <v>6</v>
@@ -1987,7 +2141,7 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1995,10 +2149,10 @@
         <v>444284162</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -2007,7 +2161,7 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2015,10 +2169,10 @@
         <v>444284162</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E60">
         <v>6</v>
@@ -2027,7 +2181,7 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2035,10 +2189,10 @@
         <v>444284162</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -2047,7 +2201,7 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2055,10 +2209,10 @@
         <v>6054700257</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <v>6</v>
@@ -2067,7 +2221,7 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2075,10 +2229,10 @@
         <v>6054700257</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -2087,7 +2241,7 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2095,10 +2249,10 @@
         <v>5885288199</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E64">
         <v>6</v>
@@ -2107,7 +2261,7 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2115,10 +2269,10 @@
         <v>5885288199</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -2127,7 +2281,7 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2135,10 +2289,10 @@
         <v>444284162</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E66">
         <v>6</v>
@@ -2147,7 +2301,7 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2155,10 +2309,10 @@
         <v>444284162</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E67">
         <v>6</v>
@@ -2167,7 +2321,7 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2175,10 +2329,10 @@
         <v>444284162</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -2187,7 +2341,7 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2195,10 +2349,10 @@
         <v>215770196</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E69">
         <v>6</v>
@@ -2207,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2215,10 +2369,10 @@
         <v>215770196</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E70">
         <v>6</v>
@@ -2227,7 +2381,7 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2235,10 +2389,10 @@
         <v>1317756217</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -2247,7 +2401,7 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2255,10 +2409,10 @@
         <v>634893031</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E72">
         <v>5</v>
@@ -2267,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2275,13 +2429,13 @@
         <v>472990665</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E73">
         <v>5</v>
@@ -2290,7 +2444,7 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2298,10 +2452,10 @@
         <v>191749113</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -2310,7 +2464,7 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2318,10 +2472,10 @@
         <v>6881805090</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -2330,7 +2484,7 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2338,10 +2492,10 @@
         <v>6881805090</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E76">
         <v>5</v>
@@ -2350,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2358,10 +2512,10 @@
         <v>6881805090</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -2370,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2378,10 +2532,10 @@
         <v>6881805090</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -2390,7 +2544,7 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2398,10 +2552,10 @@
         <v>6881805090</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -2410,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2418,10 +2572,10 @@
         <v>6881805090</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -2430,7 +2584,7 @@
         <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2438,13 +2592,13 @@
         <v>197534512</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -2453,7 +2607,7 @@
         <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2461,10 +2615,10 @@
         <v>6881805090</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -2473,7 +2627,7 @@
         <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2481,10 +2635,10 @@
         <v>376169998</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -2493,7 +2647,7 @@
         <v>8</v>
       </c>
       <c r="G83" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2501,10 +2655,10 @@
         <v>444284162</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -2513,7 +2667,7 @@
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2521,10 +2675,10 @@
         <v>444284162</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -2533,7 +2687,7 @@
         <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2541,10 +2695,10 @@
         <v>376169998</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -2553,7 +2707,7 @@
         <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2561,10 +2715,10 @@
         <v>376169998</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -2573,7 +2727,7 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2581,10 +2735,10 @@
         <v>376169998</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -2593,7 +2747,7 @@
         <v>8</v>
       </c>
       <c r="G88" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2601,10 +2755,10 @@
         <v>376169998</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -2613,7 +2767,7 @@
         <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2621,10 +2775,10 @@
         <v>5885288199</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -2633,7 +2787,7 @@
         <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2641,10 +2795,10 @@
         <v>5885288199</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -2653,7 +2807,7 @@
         <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2661,10 +2815,10 @@
         <v>215770196</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E92">
         <v>5</v>
@@ -2673,7 +2827,7 @@
         <v>8</v>
       </c>
       <c r="G92" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2681,10 +2835,10 @@
         <v>215770196</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E93">
         <v>5</v>
@@ -2693,7 +2847,7 @@
         <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2701,10 +2855,10 @@
         <v>215770196</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E94">
         <v>5</v>
@@ -2713,7 +2867,7 @@
         <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2721,10 +2875,10 @@
         <v>8085882885</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -2733,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2741,10 +2895,10 @@
         <v>8085882885</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -2753,7 +2907,7 @@
         <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2761,10 +2915,10 @@
         <v>6054700257</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D97" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -2773,7 +2927,7 @@
         <v>8</v>
       </c>
       <c r="G97" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2781,10 +2935,10 @@
         <v>5948573509</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -2793,7 +2947,7 @@
         <v>8</v>
       </c>
       <c r="G98" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2801,10 +2955,10 @@
         <v>5885288199</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -2813,7 +2967,7 @@
         <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2821,10 +2975,10 @@
         <v>5885288199</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -2833,7 +2987,7 @@
         <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2841,10 +2995,10 @@
         <v>444284162</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2853,7 +3007,7 @@
         <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2861,10 +3015,10 @@
         <v>8085882885</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D102" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2873,7 +3027,7 @@
         <v>8</v>
       </c>
       <c r="G102" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2881,10 +3035,10 @@
         <v>191749113</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2893,7 +3047,7 @@
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2901,10 +3055,10 @@
         <v>444284162</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D104" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -2913,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2921,10 +3075,10 @@
         <v>444284162</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D105" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -2933,7 +3087,7 @@
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2941,10 +3095,10 @@
         <v>444284162</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2953,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2961,10 +3115,10 @@
         <v>444284162</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D107" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -2973,7 +3127,7 @@
         <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2981,10 +3135,10 @@
         <v>191749113</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -2993,7 +3147,7 @@
         <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3001,10 +3155,10 @@
         <v>376169998</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3013,7 +3167,7 @@
         <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3021,10 +3175,10 @@
         <v>376169998</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3033,7 +3187,7 @@
         <v>8</v>
       </c>
       <c r="G110" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3041,10 +3195,10 @@
         <v>376169998</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3053,7 +3207,7 @@
         <v>8</v>
       </c>
       <c r="G111" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3061,10 +3215,10 @@
         <v>5885288199</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3073,7 +3227,7 @@
         <v>8</v>
       </c>
       <c r="G112" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3081,13 +3235,13 @@
         <v>472990665</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E113">
         <v>31</v>
@@ -3096,7 +3250,7 @@
         <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3104,10 +3258,10 @@
         <v>634893031</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E114">
         <v>31</v>
@@ -3116,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3124,10 +3278,10 @@
         <v>634893031</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E115">
         <v>31</v>
@@ -3136,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3144,10 +3298,10 @@
         <v>444284162</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E116">
         <v>31</v>
@@ -3156,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3164,10 +3318,10 @@
         <v>444284162</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E117">
         <v>31</v>
@@ -3176,7 +3330,7 @@
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3184,10 +3338,10 @@
         <v>444284162</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D118" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E118">
         <v>31</v>
@@ -3196,7 +3350,7 @@
         <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3204,10 +3358,10 @@
         <v>191749113</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E119">
         <v>31</v>
@@ -3216,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3224,10 +3378,10 @@
         <v>1317756217</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E120">
         <v>31</v>
@@ -3236,7 +3390,7 @@
         <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3244,10 +3398,10 @@
         <v>191749113</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E121">
         <v>31</v>
@@ -3256,7 +3410,7 @@
         <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3264,10 +3418,10 @@
         <v>444284162</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D122" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E122">
         <v>31</v>
@@ -3276,7 +3430,7 @@
         <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3284,10 +3438,10 @@
         <v>191749113</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E123">
         <v>31</v>
@@ -3296,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3304,7 +3458,7 @@
         <v>5694587157</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E124">
         <v>31</v>
@@ -3313,7 +3467,7 @@
         <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3321,10 +3475,10 @@
         <v>263022618</v>
       </c>
       <c r="C125" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D125" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E125">
         <v>31</v>
@@ -3333,7 +3487,7 @@
         <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3341,10 +3495,10 @@
         <v>263022618</v>
       </c>
       <c r="C126" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D126" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E126">
         <v>31</v>
@@ -3353,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="G126" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3361,10 +3515,10 @@
         <v>263022618</v>
       </c>
       <c r="C127" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D127" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E127">
         <v>31</v>
@@ -3373,7 +3527,7 @@
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3381,10 +3535,10 @@
         <v>263022618</v>
       </c>
       <c r="C128" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D128" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3393,7 +3547,7 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3401,10 +3555,10 @@
         <v>5948573509</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E129">
         <v>31</v>
@@ -3413,7 +3567,7 @@
         <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3421,10 +3575,10 @@
         <v>215770196</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E130">
         <v>31</v>
@@ -3433,7 +3587,7 @@
         <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3441,10 +3595,10 @@
         <v>444284162</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D131" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E131">
         <v>31</v>
@@ -3453,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="G131" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3461,10 +3615,10 @@
         <v>444284162</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D132" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E132">
         <v>31</v>
@@ -3473,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="G132" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3481,10 +3635,10 @@
         <v>444284162</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D133" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E133">
         <v>31</v>
@@ -3493,7 +3647,7 @@
         <v>7</v>
       </c>
       <c r="G133" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3501,10 +3655,10 @@
         <v>444284162</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E134">
         <v>31</v>
@@ -3513,7 +3667,7 @@
         <v>7</v>
       </c>
       <c r="G134" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3521,10 +3675,10 @@
         <v>444284162</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D135" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E135">
         <v>31</v>
@@ -3533,7 +3687,7 @@
         <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3541,13 +3695,13 @@
         <v>184404993</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D136" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E136">
         <v>30</v>
@@ -3556,7 +3710,7 @@
         <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3564,10 +3718,10 @@
         <v>191749113</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E137">
         <v>30</v>
@@ -3576,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3584,10 +3738,10 @@
         <v>444284162</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D138" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E138">
         <v>30</v>
@@ -3596,7 +3750,7 @@
         <v>7</v>
       </c>
       <c r="G138" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3604,10 +3758,10 @@
         <v>444284162</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D139" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E139">
         <v>30</v>
@@ -3616,7 +3770,7 @@
         <v>7</v>
       </c>
       <c r="G139" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3624,10 +3778,10 @@
         <v>444284162</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D140" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E140">
         <v>30</v>
@@ -3636,7 +3790,7 @@
         <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3644,10 +3798,10 @@
         <v>5885288199</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D141" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E141">
         <v>30</v>
@@ -3656,7 +3810,7 @@
         <v>7</v>
       </c>
       <c r="G141" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3664,10 +3818,10 @@
         <v>5885288199</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D142" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E142">
         <v>30</v>
@@ -3676,7 +3830,7 @@
         <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3684,10 +3838,10 @@
         <v>6881805090</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D143" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E143">
         <v>30</v>
@@ -3696,7 +3850,7 @@
         <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3858,10 @@
         <v>191749113</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -3716,7 +3870,7 @@
         <v>7</v>
       </c>
       <c r="G144" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3724,10 +3878,10 @@
         <v>191749113</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E145">
         <v>30</v>
@@ -3736,7 +3890,7 @@
         <v>7</v>
       </c>
       <c r="G145" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3744,10 +3898,10 @@
         <v>191749113</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E146">
         <v>30</v>
@@ -3756,7 +3910,7 @@
         <v>7</v>
       </c>
       <c r="G146" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3764,10 +3918,10 @@
         <v>231855017</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E147">
         <v>30</v>
@@ -3776,7 +3930,7 @@
         <v>7</v>
       </c>
       <c r="G147" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3784,13 +3938,13 @@
         <v>184404993</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D148" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E148">
         <v>30</v>
@@ -3799,7 +3953,7 @@
         <v>7</v>
       </c>
       <c r="G148" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3807,10 +3961,10 @@
         <v>231855017</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E149">
         <v>30</v>
@@ -3819,7 +3973,7 @@
         <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3827,10 +3981,10 @@
         <v>231855017</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E150">
         <v>30</v>
@@ -3839,7 +3993,7 @@
         <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3847,10 +4001,10 @@
         <v>231855017</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E151">
         <v>30</v>
@@ -3859,7 +4013,7 @@
         <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3867,10 +4021,10 @@
         <v>8085882885</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D152" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E152">
         <v>30</v>
@@ -3879,7 +4033,7 @@
         <v>7</v>
       </c>
       <c r="G152" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3887,10 +4041,10 @@
         <v>1387762095</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E153">
         <v>30</v>
@@ -3899,7 +4053,7 @@
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3907,10 +4061,10 @@
         <v>1387762095</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -3919,7 +4073,7 @@
         <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3927,10 +4081,10 @@
         <v>444284162</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D155" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E155">
         <v>30</v>
@@ -3939,7 +4093,7 @@
         <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3947,10 +4101,10 @@
         <v>231855017</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E156">
         <v>30</v>
@@ -3959,7 +4113,7 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3967,10 +4121,10 @@
         <v>231855017</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E157">
         <v>30</v>
@@ -3979,7 +4133,7 @@
         <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3987,10 +4141,10 @@
         <v>5885288199</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D158" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E158">
         <v>30</v>
@@ -3999,7 +4153,7 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4007,10 +4161,10 @@
         <v>191749113</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E159">
         <v>29</v>
@@ -4019,7 +4173,7 @@
         <v>7</v>
       </c>
       <c r="G159" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4027,10 +4181,10 @@
         <v>191749113</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E160">
         <v>29</v>
@@ -4039,7 +4193,7 @@
         <v>7</v>
       </c>
       <c r="G160" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4047,7 +4201,7 @@
         <v>5491951442</v>
       </c>
       <c r="C161" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E161">
         <v>29</v>
@@ -4056,7 +4210,7 @@
         <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4064,10 +4218,10 @@
         <v>6881805090</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D162" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E162">
         <v>29</v>
@@ -4076,7 +4230,7 @@
         <v>7</v>
       </c>
       <c r="G162" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4084,10 +4238,10 @@
         <v>6881805090</v>
       </c>
       <c r="C163" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D163" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E163">
         <v>29</v>
@@ -4096,7 +4250,7 @@
         <v>7</v>
       </c>
       <c r="G163" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4104,10 +4258,10 @@
         <v>444284162</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D164" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E164">
         <v>29</v>
@@ -4116,7 +4270,7 @@
         <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4124,10 +4278,10 @@
         <v>444284162</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D165" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E165">
         <v>29</v>
@@ -4136,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="G165" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4144,10 +4298,10 @@
         <v>444284162</v>
       </c>
       <c r="C166" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E166">
         <v>29</v>
@@ -4156,7 +4310,7 @@
         <v>7</v>
       </c>
       <c r="G166" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4164,10 +4318,10 @@
         <v>215770196</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E167">
         <v>29</v>
@@ -4176,7 +4330,7 @@
         <v>7</v>
       </c>
       <c r="G167" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4184,10 +4338,10 @@
         <v>215770196</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E168">
         <v>29</v>
@@ -4196,7 +4350,7 @@
         <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4204,10 +4358,10 @@
         <v>191749113</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E169">
         <v>29</v>
@@ -4216,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="G169" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4224,10 +4378,10 @@
         <v>263022618</v>
       </c>
       <c r="C170" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D170" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E170">
         <v>29</v>
@@ -4236,7 +4390,7 @@
         <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4244,10 +4398,10 @@
         <v>263022618</v>
       </c>
       <c r="C171" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D171" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E171">
         <v>29</v>
@@ -4256,7 +4410,7 @@
         <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4264,13 +4418,13 @@
         <v>184404993</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C172" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D172" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E172">
         <v>29</v>
@@ -4279,7 +4433,7 @@
         <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4287,13 +4441,13 @@
         <v>184404993</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D173" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E173">
         <v>29</v>
@@ -4302,7 +4456,7 @@
         <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4310,13 +4464,13 @@
         <v>184404993</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C174" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D174" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E174">
         <v>29</v>
@@ -4325,7 +4479,7 @@
         <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4333,10 +4487,10 @@
         <v>263022618</v>
       </c>
       <c r="C175" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D175" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E175">
         <v>29</v>
@@ -4345,7 +4499,7 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4353,10 +4507,10 @@
         <v>263022618</v>
       </c>
       <c r="C176" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D176" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E176">
         <v>29</v>
@@ -4365,7 +4519,7 @@
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4373,13 +4527,13 @@
         <v>184404993</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C177" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D177" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E177">
         <v>29</v>
@@ -4388,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="G177" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4396,10 +4550,10 @@
         <v>444284162</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D178" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E178">
         <v>29</v>
@@ -4408,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="G178" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4416,10 +4570,10 @@
         <v>191749113</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E179">
         <v>29</v>
@@ -4428,7 +4582,7 @@
         <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4436,13 +4590,13 @@
         <v>197534512</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D180" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E180">
         <v>29</v>
@@ -4451,7 +4605,7 @@
         <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4459,10 +4613,10 @@
         <v>5803543484</v>
       </c>
       <c r="B181" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E181">
         <v>29</v>
@@ -4471,7 +4625,7 @@
         <v>7</v>
       </c>
       <c r="G181" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4479,10 +4633,10 @@
         <v>444284162</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D182" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E182">
         <v>29</v>
@@ -4491,7 +4645,7 @@
         <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4499,10 +4653,10 @@
         <v>215770196</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D183" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E183">
         <v>29</v>
@@ -4511,7 +4665,7 @@
         <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4519,10 +4673,10 @@
         <v>444284162</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D184" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E184">
         <v>29</v>
@@ -4531,7 +4685,7 @@
         <v>7</v>
       </c>
       <c r="G184" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4539,10 +4693,10 @@
         <v>444284162</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D185" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E185">
         <v>29</v>
@@ -4551,7 +4705,7 @@
         <v>7</v>
       </c>
       <c r="G185" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4559,10 +4713,10 @@
         <v>444284162</v>
       </c>
       <c r="C186" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D186" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E186">
         <v>29</v>
@@ -4571,7 +4725,7 @@
         <v>7</v>
       </c>
       <c r="G186" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4579,10 +4733,10 @@
         <v>5803543484</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C187" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E187">
         <v>29</v>
@@ -4591,7 +4745,7 @@
         <v>7</v>
       </c>
       <c r="G187" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4599,10 +4753,10 @@
         <v>444284162</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D188" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E188">
         <v>29</v>
@@ -4611,7 +4765,7 @@
         <v>7</v>
       </c>
       <c r="G188" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4619,10 +4773,10 @@
         <v>5885288199</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D189" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E189">
         <v>29</v>
@@ -4631,7 +4785,7 @@
         <v>7</v>
       </c>
       <c r="G189" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4639,10 +4793,10 @@
         <v>444284162</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D190" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E190">
         <v>29</v>
@@ -4651,7 +4805,7 @@
         <v>7</v>
       </c>
       <c r="G190" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4659,10 +4813,10 @@
         <v>444284162</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D191" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E191">
         <v>29</v>
@@ -4671,7 +4825,7 @@
         <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4679,10 +4833,10 @@
         <v>6881805090</v>
       </c>
       <c r="C192" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D192" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E192">
         <v>29</v>
@@ -4691,7 +4845,7 @@
         <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4699,10 +4853,10 @@
         <v>5803543484</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C193" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E193">
         <v>29</v>
@@ -4711,7 +4865,7 @@
         <v>7</v>
       </c>
       <c r="G193" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4719,10 +4873,10 @@
         <v>5885288199</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D194" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E194">
         <v>28</v>
@@ -4731,7 +4885,7 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4739,10 +4893,10 @@
         <v>5885288199</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D195" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E195">
         <v>28</v>
@@ -4751,7 +4905,7 @@
         <v>7</v>
       </c>
       <c r="G195" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4759,10 +4913,10 @@
         <v>444284162</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D196" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E196">
         <v>28</v>
@@ -4771,7 +4925,7 @@
         <v>7</v>
       </c>
       <c r="G196" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4779,10 +4933,10 @@
         <v>263022618</v>
       </c>
       <c r="C197" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D197" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E197">
         <v>28</v>
@@ -4791,7 +4945,7 @@
         <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4799,10 +4953,10 @@
         <v>263022618</v>
       </c>
       <c r="C198" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D198" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E198">
         <v>28</v>
@@ -4811,7 +4965,7 @@
         <v>7</v>
       </c>
       <c r="G198" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4819,10 +4973,10 @@
         <v>444284162</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D199" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E199">
         <v>28</v>
@@ -4831,7 +4985,7 @@
         <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4839,10 +4993,10 @@
         <v>6881805090</v>
       </c>
       <c r="C200" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D200" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E200">
         <v>28</v>
@@ -4851,7 +5005,7 @@
         <v>7</v>
       </c>
       <c r="G200" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4859,10 +5013,10 @@
         <v>444284162</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D201" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E201">
         <v>28</v>
@@ -4871,7 +5025,7 @@
         <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -4879,13 +5033,13 @@
         <v>197534512</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D202" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E202">
         <v>28</v>
@@ -4894,7 +5048,7 @@
         <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -4902,10 +5056,10 @@
         <v>6881805090</v>
       </c>
       <c r="C203" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D203" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E203">
         <v>28</v>
@@ -4914,7 +5068,7 @@
         <v>7</v>
       </c>
       <c r="G203" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -4922,10 +5076,10 @@
         <v>5803543484</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C204" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E204">
         <v>28</v>
@@ -4934,7 +5088,7 @@
         <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -4942,10 +5096,10 @@
         <v>5803543484</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C205" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E205">
         <v>28</v>
@@ -4954,7 +5108,7 @@
         <v>7</v>
       </c>
       <c r="G205" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -4962,10 +5116,10 @@
         <v>5803543484</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C206" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E206">
         <v>28</v>
@@ -4974,7 +5128,7 @@
         <v>7</v>
       </c>
       <c r="G206" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -4982,7 +5136,7 @@
         <v>600960219</v>
       </c>
       <c r="C207" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E207">
         <v>28</v>
@@ -4991,7 +5145,7 @@
         <v>7</v>
       </c>
       <c r="G207" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -4999,10 +5153,10 @@
         <v>444284162</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D208" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E208">
         <v>28</v>
@@ -5011,7 +5165,7 @@
         <v>7</v>
       </c>
       <c r="G208" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5019,10 +5173,10 @@
         <v>5803543484</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C209" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E209">
         <v>28</v>
@@ -5031,7 +5185,7 @@
         <v>7</v>
       </c>
       <c r="G209" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5039,10 +5193,10 @@
         <v>5803543484</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C210" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E210">
         <v>28</v>
@@ -5051,7 +5205,7 @@
         <v>7</v>
       </c>
       <c r="G210" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5059,10 +5213,10 @@
         <v>444284162</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D211" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E211">
         <v>28</v>
@@ -5071,7 +5225,7 @@
         <v>7</v>
       </c>
       <c r="G211" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5079,10 +5233,10 @@
         <v>444284162</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D212" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E212">
         <v>28</v>
@@ -5091,7 +5245,7 @@
         <v>7</v>
       </c>
       <c r="G212" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5099,10 +5253,10 @@
         <v>444284162</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D213" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E213">
         <v>28</v>
@@ -5111,7 +5265,7 @@
         <v>7</v>
       </c>
       <c r="G213" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5119,10 +5273,10 @@
         <v>5803543484</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C214" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E214">
         <v>28</v>
@@ -5131,7 +5285,7 @@
         <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5139,10 +5293,10 @@
         <v>6881805090</v>
       </c>
       <c r="C215" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D215" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E215">
         <v>28</v>
@@ -5151,7 +5305,7 @@
         <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5159,10 +5313,10 @@
         <v>6881805090</v>
       </c>
       <c r="C216" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D216" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E216">
         <v>28</v>
@@ -5171,7 +5325,7 @@
         <v>7</v>
       </c>
       <c r="G216" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5179,10 +5333,10 @@
         <v>5803543484</v>
       </c>
       <c r="B217" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C217" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E217">
         <v>28</v>
@@ -5191,7 +5345,7 @@
         <v>7</v>
       </c>
       <c r="G217" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5199,10 +5353,10 @@
         <v>444284162</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D218" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E218">
         <v>28</v>
@@ -5211,7 +5365,7 @@
         <v>7</v>
       </c>
       <c r="G218" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5219,10 +5373,10 @@
         <v>5803543484</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C219" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E219">
         <v>28</v>
@@ -5231,7 +5385,7 @@
         <v>7</v>
       </c>
       <c r="G219" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5239,10 +5393,10 @@
         <v>1387762095</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E220">
         <v>28</v>
@@ -5251,7 +5405,7 @@
         <v>7</v>
       </c>
       <c r="G220" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5259,10 +5413,10 @@
         <v>444284162</v>
       </c>
       <c r="C221" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D221" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E221">
         <v>28</v>
@@ -5271,7 +5425,7 @@
         <v>7</v>
       </c>
       <c r="G221" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5279,10 +5433,10 @@
         <v>444284162</v>
       </c>
       <c r="C222" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D222" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E222">
         <v>28</v>
@@ -5291,7 +5445,7 @@
         <v>7</v>
       </c>
       <c r="G222" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5299,10 +5453,10 @@
         <v>444284162</v>
       </c>
       <c r="C223" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D223" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E223">
         <v>28</v>
@@ -5311,7 +5465,7 @@
         <v>7</v>
       </c>
       <c r="G223" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5319,10 +5473,10 @@
         <v>215770196</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D224" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E224">
         <v>28</v>
@@ -5331,18 +5485,18 @@
         <v>7</v>
       </c>
       <c r="G224" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225">
         <v>5961964824</v>
       </c>
       <c r="C225" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D225" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E225">
         <v>28</v>
@@ -5351,18 +5505,18 @@
         <v>7</v>
       </c>
       <c r="G225" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226">
         <v>5885288199</v>
       </c>
       <c r="C226" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D226" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E226">
         <v>28</v>
@@ -5371,18 +5525,18 @@
         <v>7</v>
       </c>
       <c r="G226" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227">
         <v>5885288199</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D227" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E227">
         <v>28</v>
@@ -5391,18 +5545,18 @@
         <v>7</v>
       </c>
       <c r="G227" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228">
         <v>5885288199</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D228" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E228">
         <v>28</v>
@@ -5411,18 +5565,18 @@
         <v>7</v>
       </c>
       <c r="G228" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229">
         <v>5961964824</v>
       </c>
       <c r="C229" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D229" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E229">
         <v>26</v>
@@ -5431,18 +5585,18 @@
         <v>7</v>
       </c>
       <c r="G229" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230">
         <v>1317756217</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E230">
         <v>25</v>
@@ -5451,18 +5605,18 @@
         <v>7</v>
       </c>
       <c r="G230" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231">
         <v>1317756217</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C231" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E231">
         <v>25</v>
@@ -5471,15 +5625,15 @@
         <v>7</v>
       </c>
       <c r="G231" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232">
         <v>198540983</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E232">
         <v>25</v>
@@ -5488,21 +5642,21 @@
         <v>7</v>
       </c>
       <c r="G232" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233">
         <v>197534512</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D233" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E233">
         <v>25</v>
@@ -5511,18 +5665,18 @@
         <v>7</v>
       </c>
       <c r="G233" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234">
         <v>8085882885</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D234" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E234">
         <v>25</v>
@@ -5531,18 +5685,18 @@
         <v>7</v>
       </c>
       <c r="G234" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
       <c r="A235">
         <v>376169998</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D235" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E235">
         <v>25</v>
@@ -5551,7 +5705,1092 @@
         <v>7</v>
       </c>
       <c r="G235" t="s">
-        <v>148</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236">
+        <v>376169998</v>
+      </c>
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236" t="s">
+        <v>53</v>
+      </c>
+      <c r="E236">
+        <v>13</v>
+      </c>
+      <c r="F236">
+        <v>8</v>
+      </c>
+      <c r="G236" t="s">
+        <v>160</v>
+      </c>
+      <c r="H236">
+        <v>2025</v>
+      </c>
+      <c r="I236" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J236" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237">
+        <v>376169998</v>
+      </c>
+      <c r="C237" t="s">
+        <v>26</v>
+      </c>
+      <c r="D237" t="s">
+        <v>53</v>
+      </c>
+      <c r="E237">
+        <v>13</v>
+      </c>
+      <c r="F237">
+        <v>8</v>
+      </c>
+      <c r="G237" t="s">
+        <v>160</v>
+      </c>
+      <c r="H237">
+        <v>2025</v>
+      </c>
+      <c r="I237" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J237" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238">
+        <v>376169998</v>
+      </c>
+      <c r="C238" t="s">
+        <v>26</v>
+      </c>
+      <c r="D238" t="s">
+        <v>53</v>
+      </c>
+      <c r="E238">
+        <v>13</v>
+      </c>
+      <c r="F238">
+        <v>8</v>
+      </c>
+      <c r="G238" t="s">
+        <v>160</v>
+      </c>
+      <c r="H238">
+        <v>2025</v>
+      </c>
+      <c r="I238" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J238" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239">
+        <v>376169998</v>
+      </c>
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+      <c r="D239" t="s">
+        <v>53</v>
+      </c>
+      <c r="E239">
+        <v>13</v>
+      </c>
+      <c r="F239">
+        <v>8</v>
+      </c>
+      <c r="G239" t="s">
+        <v>160</v>
+      </c>
+      <c r="H239">
+        <v>2025</v>
+      </c>
+      <c r="I239" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J239" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240">
+        <v>999024757</v>
+      </c>
+      <c r="B240" t="s">
+        <v>21</v>
+      </c>
+      <c r="C240" t="s">
+        <v>50</v>
+      </c>
+      <c r="D240" t="s">
+        <v>67</v>
+      </c>
+      <c r="E240">
+        <v>13</v>
+      </c>
+      <c r="F240">
+        <v>8</v>
+      </c>
+      <c r="G240" t="s">
+        <v>161</v>
+      </c>
+      <c r="H240">
+        <v>2025</v>
+      </c>
+      <c r="I240" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J240" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241">
+        <v>263022618</v>
+      </c>
+      <c r="C241" t="s">
+        <v>43</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241">
+        <v>13</v>
+      </c>
+      <c r="F241">
+        <v>8</v>
+      </c>
+      <c r="G241" t="s">
+        <v>162</v>
+      </c>
+      <c r="H241">
+        <v>2025</v>
+      </c>
+      <c r="I241" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J241" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242">
+        <v>6881805090</v>
+      </c>
+      <c r="C242" t="s">
+        <v>32</v>
+      </c>
+      <c r="D242" t="s">
+        <v>58</v>
+      </c>
+      <c r="E242">
+        <v>13</v>
+      </c>
+      <c r="F242">
+        <v>8</v>
+      </c>
+      <c r="G242" t="s">
+        <v>163</v>
+      </c>
+      <c r="H242">
+        <v>2025</v>
+      </c>
+      <c r="I242" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J242" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243">
+        <v>600960219</v>
+      </c>
+      <c r="C243" t="s">
+        <v>48</v>
+      </c>
+      <c r="E243">
+        <v>13</v>
+      </c>
+      <c r="F243">
+        <v>8</v>
+      </c>
+      <c r="G243" t="s">
+        <v>164</v>
+      </c>
+      <c r="H243">
+        <v>2025</v>
+      </c>
+      <c r="I243" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J243" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244">
+        <v>6881805090</v>
+      </c>
+      <c r="C244" t="s">
+        <v>32</v>
+      </c>
+      <c r="D244" t="s">
+        <v>58</v>
+      </c>
+      <c r="E244">
+        <v>13</v>
+      </c>
+      <c r="F244">
+        <v>8</v>
+      </c>
+      <c r="G244" t="s">
+        <v>163</v>
+      </c>
+      <c r="H244">
+        <v>2025</v>
+      </c>
+      <c r="I244" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J244" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245">
+        <v>444284162</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>55</v>
+      </c>
+      <c r="E245">
+        <v>13</v>
+      </c>
+      <c r="F245">
+        <v>8</v>
+      </c>
+      <c r="G245" t="s">
+        <v>165</v>
+      </c>
+      <c r="H245">
+        <v>2025</v>
+      </c>
+      <c r="I245" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J245" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="A246">
+        <v>197534512</v>
+      </c>
+      <c r="B246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s">
+        <v>29</v>
+      </c>
+      <c r="D246" t="s">
+        <v>56</v>
+      </c>
+      <c r="E246">
+        <v>13</v>
+      </c>
+      <c r="F246">
+        <v>8</v>
+      </c>
+      <c r="G246" t="s">
+        <v>166</v>
+      </c>
+      <c r="H246">
+        <v>2025</v>
+      </c>
+      <c r="I246" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J246" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247">
+        <v>472990665</v>
+      </c>
+      <c r="B247" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" t="s">
+        <v>36</v>
+      </c>
+      <c r="D247" t="s">
+        <v>61</v>
+      </c>
+      <c r="E247">
+        <v>13</v>
+      </c>
+      <c r="F247">
+        <v>8</v>
+      </c>
+      <c r="G247" t="s">
+        <v>167</v>
+      </c>
+      <c r="H247">
+        <v>2025</v>
+      </c>
+      <c r="I247" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J247" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="A248">
+        <v>1855522970</v>
+      </c>
+      <c r="B248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" t="s">
+        <v>24</v>
+      </c>
+      <c r="E248">
+        <v>13</v>
+      </c>
+      <c r="F248">
+        <v>8</v>
+      </c>
+      <c r="G248" t="s">
+        <v>168</v>
+      </c>
+      <c r="H248">
+        <v>2025</v>
+      </c>
+      <c r="I248" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J248" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
+      <c r="A249">
+        <v>1855522970</v>
+      </c>
+      <c r="B249" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" t="s">
+        <v>24</v>
+      </c>
+      <c r="E249">
+        <v>13</v>
+      </c>
+      <c r="F249">
+        <v>8</v>
+      </c>
+      <c r="G249" t="s">
+        <v>168</v>
+      </c>
+      <c r="H249">
+        <v>2025</v>
+      </c>
+      <c r="I249" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J249" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250">
+        <v>1855522970</v>
+      </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E250">
+        <v>13</v>
+      </c>
+      <c r="F250">
+        <v>8</v>
+      </c>
+      <c r="G250" t="s">
+        <v>168</v>
+      </c>
+      <c r="H250">
+        <v>2025</v>
+      </c>
+      <c r="I250" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J250" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="A251">
+        <v>1855522970</v>
+      </c>
+      <c r="B251" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" t="s">
+        <v>24</v>
+      </c>
+      <c r="E251">
+        <v>13</v>
+      </c>
+      <c r="F251">
+        <v>8</v>
+      </c>
+      <c r="G251" t="s">
+        <v>168</v>
+      </c>
+      <c r="H251">
+        <v>2025</v>
+      </c>
+      <c r="I251" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J251" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252">
+        <v>5885288199</v>
+      </c>
+      <c r="C252" t="s">
+        <v>30</v>
+      </c>
+      <c r="D252" t="s">
+        <v>57</v>
+      </c>
+      <c r="E252">
+        <v>13</v>
+      </c>
+      <c r="F252">
+        <v>8</v>
+      </c>
+      <c r="G252" t="s">
+        <v>169</v>
+      </c>
+      <c r="H252">
+        <v>2025</v>
+      </c>
+      <c r="I252" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J252" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253">
+        <v>5742326364</v>
+      </c>
+      <c r="B253" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" t="s">
+        <v>51</v>
+      </c>
+      <c r="D253" t="s">
+        <v>68</v>
+      </c>
+      <c r="E253">
+        <v>13</v>
+      </c>
+      <c r="F253">
+        <v>8</v>
+      </c>
+      <c r="G253" t="s">
+        <v>170</v>
+      </c>
+      <c r="H253">
+        <v>2025</v>
+      </c>
+      <c r="I253" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J253" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="A254">
+        <v>472990665</v>
+      </c>
+      <c r="B254" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" t="s">
+        <v>36</v>
+      </c>
+      <c r="D254" t="s">
+        <v>61</v>
+      </c>
+      <c r="E254">
+        <v>13</v>
+      </c>
+      <c r="F254">
+        <v>8</v>
+      </c>
+      <c r="G254" t="s">
+        <v>167</v>
+      </c>
+      <c r="H254">
+        <v>2025</v>
+      </c>
+      <c r="I254" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J254" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="A255">
+        <v>444284162</v>
+      </c>
+      <c r="C255" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" t="s">
+        <v>55</v>
+      </c>
+      <c r="E255">
+        <v>13</v>
+      </c>
+      <c r="F255">
+        <v>8</v>
+      </c>
+      <c r="G255" t="s">
+        <v>165</v>
+      </c>
+      <c r="H255">
+        <v>2025</v>
+      </c>
+      <c r="I255" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J255" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="A256">
+        <v>1855522970</v>
+      </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" t="s">
+        <v>24</v>
+      </c>
+      <c r="E256">
+        <v>12</v>
+      </c>
+      <c r="F256">
+        <v>8</v>
+      </c>
+      <c r="G256" t="s">
+        <v>171</v>
+      </c>
+      <c r="H256">
+        <v>2025</v>
+      </c>
+      <c r="I256" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J256" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257">
+        <v>600960219</v>
+      </c>
+      <c r="C257" t="s">
+        <v>48</v>
+      </c>
+      <c r="E257">
+        <v>12</v>
+      </c>
+      <c r="F257">
+        <v>8</v>
+      </c>
+      <c r="G257" t="s">
+        <v>172</v>
+      </c>
+      <c r="H257">
+        <v>2025</v>
+      </c>
+      <c r="I257" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J257" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="A258">
+        <v>600960219</v>
+      </c>
+      <c r="C258" t="s">
+        <v>48</v>
+      </c>
+      <c r="E258">
+        <v>12</v>
+      </c>
+      <c r="F258">
+        <v>8</v>
+      </c>
+      <c r="G258" t="s">
+        <v>172</v>
+      </c>
+      <c r="H258">
+        <v>2025</v>
+      </c>
+      <c r="I258" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J258" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
+      <c r="A259">
+        <v>999024757</v>
+      </c>
+      <c r="B259" t="s">
+        <v>21</v>
+      </c>
+      <c r="C259" t="s">
+        <v>50</v>
+      </c>
+      <c r="D259" t="s">
+        <v>67</v>
+      </c>
+      <c r="E259">
+        <v>12</v>
+      </c>
+      <c r="F259">
+        <v>8</v>
+      </c>
+      <c r="G259" t="s">
+        <v>173</v>
+      </c>
+      <c r="H259">
+        <v>2025</v>
+      </c>
+      <c r="I259" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J259" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="A260">
+        <v>999024757</v>
+      </c>
+      <c r="B260" t="s">
+        <v>21</v>
+      </c>
+      <c r="C260" t="s">
+        <v>50</v>
+      </c>
+      <c r="D260" t="s">
+        <v>67</v>
+      </c>
+      <c r="E260">
+        <v>12</v>
+      </c>
+      <c r="F260">
+        <v>8</v>
+      </c>
+      <c r="G260" t="s">
+        <v>173</v>
+      </c>
+      <c r="H260">
+        <v>2025</v>
+      </c>
+      <c r="I260" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J260" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="A261">
+        <v>1855522970</v>
+      </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" t="s">
+        <v>24</v>
+      </c>
+      <c r="E261">
+        <v>12</v>
+      </c>
+      <c r="F261">
+        <v>8</v>
+      </c>
+      <c r="G261" t="s">
+        <v>171</v>
+      </c>
+      <c r="H261">
+        <v>2025</v>
+      </c>
+      <c r="I261" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J261" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262">
+        <v>1855522970</v>
+      </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" t="s">
+        <v>24</v>
+      </c>
+      <c r="E262">
+        <v>12</v>
+      </c>
+      <c r="F262">
+        <v>8</v>
+      </c>
+      <c r="G262" t="s">
+        <v>171</v>
+      </c>
+      <c r="H262">
+        <v>2025</v>
+      </c>
+      <c r="I262" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J262" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
+      <c r="A263">
+        <v>444284162</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263" t="s">
+        <v>55</v>
+      </c>
+      <c r="E263">
+        <v>12</v>
+      </c>
+      <c r="F263">
+        <v>8</v>
+      </c>
+      <c r="G263" t="s">
+        <v>174</v>
+      </c>
+      <c r="H263">
+        <v>2025</v>
+      </c>
+      <c r="I263" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J263" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="A264">
+        <v>444284162</v>
+      </c>
+      <c r="C264" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" t="s">
+        <v>55</v>
+      </c>
+      <c r="E264">
+        <v>12</v>
+      </c>
+      <c r="F264">
+        <v>8</v>
+      </c>
+      <c r="G264" t="s">
+        <v>174</v>
+      </c>
+      <c r="H264">
+        <v>2025</v>
+      </c>
+      <c r="I264" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J264" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="A265">
+        <v>444284162</v>
+      </c>
+      <c r="C265" t="s">
+        <v>28</v>
+      </c>
+      <c r="D265" t="s">
+        <v>55</v>
+      </c>
+      <c r="E265">
+        <v>12</v>
+      </c>
+      <c r="F265">
+        <v>8</v>
+      </c>
+      <c r="G265" t="s">
+        <v>174</v>
+      </c>
+      <c r="H265">
+        <v>2025</v>
+      </c>
+      <c r="I265" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J265" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="A266">
+        <v>1272726249</v>
+      </c>
+      <c r="B266" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" t="s">
+        <v>52</v>
+      </c>
+      <c r="D266" t="s">
+        <v>68</v>
+      </c>
+      <c r="E266">
+        <v>12</v>
+      </c>
+      <c r="F266">
+        <v>8</v>
+      </c>
+      <c r="G266" t="s">
+        <v>175</v>
+      </c>
+      <c r="H266">
+        <v>2025</v>
+      </c>
+      <c r="I266" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J266" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
+      <c r="A267">
+        <v>1855522970</v>
+      </c>
+      <c r="B267" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" t="s">
+        <v>24</v>
+      </c>
+      <c r="E267">
+        <v>12</v>
+      </c>
+      <c r="F267">
+        <v>8</v>
+      </c>
+      <c r="G267" t="s">
+        <v>171</v>
+      </c>
+      <c r="H267">
+        <v>2025</v>
+      </c>
+      <c r="I267" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J267" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="A268">
+        <v>444284162</v>
+      </c>
+      <c r="C268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>55</v>
+      </c>
+      <c r="E268">
+        <v>12</v>
+      </c>
+      <c r="F268">
+        <v>8</v>
+      </c>
+      <c r="G268" t="s">
+        <v>174</v>
+      </c>
+      <c r="H268">
+        <v>2025</v>
+      </c>
+      <c r="I268" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J268" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269">
+        <v>215770196</v>
+      </c>
+      <c r="C269" t="s">
+        <v>27</v>
+      </c>
+      <c r="D269" t="s">
+        <v>54</v>
+      </c>
+      <c r="E269">
+        <v>12</v>
+      </c>
+      <c r="F269">
+        <v>8</v>
+      </c>
+      <c r="G269" t="s">
+        <v>176</v>
+      </c>
+      <c r="H269">
+        <v>2025</v>
+      </c>
+      <c r="I269" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J269" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
+      <c r="A270">
+        <v>600960219</v>
+      </c>
+      <c r="C270" t="s">
+        <v>48</v>
+      </c>
+      <c r="E270">
+        <v>12</v>
+      </c>
+      <c r="F270">
+        <v>8</v>
+      </c>
+      <c r="G270" t="s">
+        <v>172</v>
+      </c>
+      <c r="H270">
+        <v>2025</v>
+      </c>
+      <c r="I270" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J270" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
+      <c r="A271">
+        <v>215770196</v>
+      </c>
+      <c r="C271" t="s">
+        <v>27</v>
+      </c>
+      <c r="D271" t="s">
+        <v>54</v>
+      </c>
+      <c r="E271">
+        <v>12</v>
+      </c>
+      <c r="F271">
+        <v>8</v>
+      </c>
+      <c r="G271" t="s">
+        <v>176</v>
+      </c>
+      <c r="H271">
+        <v>2025</v>
+      </c>
+      <c r="I271" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J271" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
+      <c r="A272">
+        <v>5885288199</v>
+      </c>
+      <c r="C272" t="s">
+        <v>30</v>
+      </c>
+      <c r="D272" t="s">
+        <v>57</v>
+      </c>
+      <c r="E272">
+        <v>12</v>
+      </c>
+      <c r="F272">
+        <v>8</v>
+      </c>
+      <c r="G272" t="s">
+        <v>177</v>
+      </c>
+      <c r="H272">
+        <v>2025</v>
+      </c>
+      <c r="I272" s="2">
+        <v>45882.76328934028</v>
+      </c>
+      <c r="J272" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
